--- a/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
+++ b/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
@@ -1,24 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\io-model\VoSTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\VoSTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5739E860-5D5E-43E6-8170-BB9419002ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5738321E-CC4C-4416-807D-B27B4B320AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="6780" windowWidth="15240" windowHeight="10545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="State tax rate" sheetId="6" r:id="rId2"/>
-    <sheet name="BEA Output" sheetId="3" r:id="rId3"/>
-    <sheet name="BEA Sales Tax Revenue" sheetId="4" r:id="rId4"/>
-    <sheet name="Average Tax Rate" sheetId="5" r:id="rId5"/>
-    <sheet name="VoSTR" sheetId="2" r:id="rId6"/>
+    <sheet name="BEA Output" sheetId="3" r:id="rId2"/>
+    <sheet name="BEA Sales Tax Revenue" sheetId="4" r:id="rId3"/>
+    <sheet name="Average Tax Rate" sheetId="5" r:id="rId4"/>
+    <sheet name="VoSTR" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="334">
   <si>
     <t>Notes:</t>
   </si>
@@ -1039,474 +1038,6 @@
   </si>
   <si>
     <t>https://apps.bea.gov/iTable/iTable.cfm?reqid=19&amp;step=3&amp;isuri=1&amp;nipa_table_list=88&amp;categories=survey</t>
-  </si>
-  <si>
-    <t>West Virginia</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Alabama</t>
-  </si>
-  <si>
-    <t>AL</t>
-  </si>
-  <si>
-    <t>Alaska</t>
-  </si>
-  <si>
-    <t>AK</t>
-  </si>
-  <si>
-    <t>Arizona</t>
-  </si>
-  <si>
-    <t>AZ</t>
-  </si>
-  <si>
-    <t>Arkansas</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>California</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
-    <t>Colorado</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Connecticut</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>Delaware</t>
-  </si>
-  <si>
-    <t>DE</t>
-  </si>
-  <si>
-    <t>Florida</t>
-  </si>
-  <si>
-    <t>FL</t>
-  </si>
-  <si>
-    <t>Georgia</t>
-  </si>
-  <si>
-    <t>GA</t>
-  </si>
-  <si>
-    <t>Hawaii</t>
-  </si>
-  <si>
-    <t>HI</t>
-  </si>
-  <si>
-    <t>Idaho</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Illinois</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>Indiana</t>
-  </si>
-  <si>
-    <t>IN</t>
-  </si>
-  <si>
-    <t>Iowa</t>
-  </si>
-  <si>
-    <t>IA</t>
-  </si>
-  <si>
-    <t>Kansas</t>
-  </si>
-  <si>
-    <t>KS</t>
-  </si>
-  <si>
-    <t>Kentucky</t>
-  </si>
-  <si>
-    <t>KY</t>
-  </si>
-  <si>
-    <t>Louisiana</t>
-  </si>
-  <si>
-    <t>LA</t>
-  </si>
-  <si>
-    <t>Maine</t>
-  </si>
-  <si>
-    <t>ME</t>
-  </si>
-  <si>
-    <t>Maryland</t>
-  </si>
-  <si>
-    <t>MD</t>
-  </si>
-  <si>
-    <t>Massachusetts</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>Michigan</t>
-  </si>
-  <si>
-    <t>MI</t>
-  </si>
-  <si>
-    <t>Minnesota</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>Mississippi</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Missouri</t>
-  </si>
-  <si>
-    <t>MO</t>
-  </si>
-  <si>
-    <t>Montana</t>
-  </si>
-  <si>
-    <t>MT</t>
-  </si>
-  <si>
-    <t>Nebraska</t>
-  </si>
-  <si>
-    <t>NE</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>NV</t>
-  </si>
-  <si>
-    <t>New Hampshire</t>
-  </si>
-  <si>
-    <t>NH</t>
-  </si>
-  <si>
-    <t>New Jersey</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>New Mexico</t>
-  </si>
-  <si>
-    <t>NM</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>North Carolina</t>
-  </si>
-  <si>
-    <t>NC</t>
-  </si>
-  <si>
-    <t>North Dakota</t>
-  </si>
-  <si>
-    <t>ND</t>
-  </si>
-  <si>
-    <t>Ohio</t>
-  </si>
-  <si>
-    <t>OH</t>
-  </si>
-  <si>
-    <t>Oklahoma</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>Oregon</t>
-  </si>
-  <si>
-    <t>OR</t>
-  </si>
-  <si>
-    <t>Pennsylvania</t>
-  </si>
-  <si>
-    <t>PA</t>
-  </si>
-  <si>
-    <t>Rhode Island</t>
-  </si>
-  <si>
-    <t>RI</t>
-  </si>
-  <si>
-    <t>South Carolina</t>
-  </si>
-  <si>
-    <t>SC</t>
-  </si>
-  <si>
-    <t>South Dakota</t>
-  </si>
-  <si>
-    <t>SD</t>
-  </si>
-  <si>
-    <t>Tennessee</t>
-  </si>
-  <si>
-    <t>TN</t>
-  </si>
-  <si>
-    <t>Texas</t>
-  </si>
-  <si>
-    <t>TX</t>
-  </si>
-  <si>
-    <t>Utah</t>
-  </si>
-  <si>
-    <t>UT</t>
-  </si>
-  <si>
-    <t>Vermont</t>
-  </si>
-  <si>
-    <t>VT</t>
-  </si>
-  <si>
-    <t>Virginia</t>
-  </si>
-  <si>
-    <t>VA</t>
-  </si>
-  <si>
-    <t>Washington</t>
-  </si>
-  <si>
-    <t>WA</t>
-  </si>
-  <si>
-    <t>WV</t>
-  </si>
-  <si>
-    <t>Wisconsin</t>
-  </si>
-  <si>
-    <t>WI</t>
-  </si>
-  <si>
-    <t>Wyoming</t>
-  </si>
-  <si>
-    <t>WY</t>
-  </si>
-  <si>
-    <t>State Tax Rate</t>
-  </si>
-  <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Avg. Local Tax Rate (a)</t>
-  </si>
-  <si>
-    <t>Combined Rate</t>
-  </si>
-  <si>
-    <t>Max Local Tax Rate</t>
-  </si>
-  <si>
-    <t>Ala.</t>
-  </si>
-  <si>
-    <t>Ariz.</t>
-  </si>
-  <si>
-    <t>Ark.</t>
-  </si>
-  <si>
-    <t>Calif. (b)</t>
-  </si>
-  <si>
-    <t>Colo.</t>
-  </si>
-  <si>
-    <t>Conn.</t>
-  </si>
-  <si>
-    <t>Del.</t>
-  </si>
-  <si>
-    <t>D.C.</t>
-  </si>
-  <si>
-    <t>Fla.</t>
-  </si>
-  <si>
-    <t>Ga.</t>
-  </si>
-  <si>
-    <t>Hawaii (c)</t>
-  </si>
-  <si>
-    <t>Ill.</t>
-  </si>
-  <si>
-    <t>Ind.</t>
-  </si>
-  <si>
-    <t>Kans.</t>
-  </si>
-  <si>
-    <t>Ky.</t>
-  </si>
-  <si>
-    <t>La.</t>
-  </si>
-  <si>
-    <t>Md.</t>
-  </si>
-  <si>
-    <t>Mass.</t>
-  </si>
-  <si>
-    <t>Mich.</t>
-  </si>
-  <si>
-    <t>Minn.</t>
-  </si>
-  <si>
-    <t>Miss.</t>
-  </si>
-  <si>
-    <t>Mo.</t>
-  </si>
-  <si>
-    <t>Mont. (d)</t>
-  </si>
-  <si>
-    <t>Nebr.</t>
-  </si>
-  <si>
-    <t>Nev.</t>
-  </si>
-  <si>
-    <t>N.H.</t>
-  </si>
-  <si>
-    <t>N.J. (e)</t>
-  </si>
-  <si>
-    <t>N.M. (c)</t>
-  </si>
-  <si>
-    <t>N.Y.</t>
-  </si>
-  <si>
-    <t>N.C.</t>
-  </si>
-  <si>
-    <t>N.D.</t>
-  </si>
-  <si>
-    <t>Okla.</t>
-  </si>
-  <si>
-    <t>Ore.</t>
-  </si>
-  <si>
-    <t>Pa.</t>
-  </si>
-  <si>
-    <t>R.I.</t>
-  </si>
-  <si>
-    <t>S.C.</t>
-  </si>
-  <si>
-    <t>S.D. (c)</t>
-  </si>
-  <si>
-    <t>Tenn.</t>
-  </si>
-  <si>
-    <t>Tex.</t>
-  </si>
-  <si>
-    <t>Utah (b)</t>
-  </si>
-  <si>
-    <t>Vt.</t>
-  </si>
-  <si>
-    <t>Va. (b)</t>
-  </si>
-  <si>
-    <t>Wash.</t>
-  </si>
-  <si>
-    <t>W.Va. </t>
-  </si>
-  <si>
-    <t>Wis.</t>
-  </si>
-  <si>
-    <t>Wyo.</t>
-  </si>
-  <si>
-    <t>State &amp; Local Sales Tax Rates as of July 1, 2022</t>
-  </si>
-  <si>
-    <t>State and Local Sales Tax Rate</t>
-  </si>
-  <si>
-    <t>Tax Foundation</t>
-  </si>
-  <si>
-    <t>https://taxfoundation.org/2022-sales-tax-rates-midyear/</t>
   </si>
 </sst>
 </file>
@@ -1514,9 +1045,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1590,36 +1121,8 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF403F41"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF403F41"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="17"/>
-      <color rgb="FF555555"/>
-      <name val="Lato"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1647,12 +1150,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1696,53 +1193,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2082,516 +1569,119 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="23.85546875" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="17"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="15" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="16">
-        <v>44827</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>335</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>335</v>
-      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="B2" s="13" t="str">
-        <f>INDEX(F:F,MATCH(B1,E:E,0))</f>
-        <v>CO</v>
-      </c>
-      <c r="C2" s="17"/>
-      <c r="E2" s="13" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="13" t="s">
-        <v>338</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="G3" s="10"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7">
-      <c r="B4" s="14" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="13" t="s">
-        <v>341</v>
-      </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="B5" s="14">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B5" s="2">
         <v>2022</v>
       </c>
-      <c r="E5" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>343</v>
-      </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="B6" s="14" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>345</v>
-      </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="B7" s="14" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E7" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F7" s="13" t="s">
-        <v>347</v>
-      </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="E8" s="13" t="s">
-        <v>348</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>349</v>
-      </c>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B9" s="18" t="s">
+        <v>330</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
     </row>
-    <row r="9" spans="1:7">
-      <c r="B9" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="13" t="s">
-        <v>350</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="G9" s="10"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B10" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" s="14" t="s">
-        <v>331</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>353</v>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B11" s="2">
+        <v>2022</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="B11" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>354</v>
-      </c>
-      <c r="F11" s="13" t="s">
-        <v>355</v>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B12" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="B12" s="14" t="s">
-        <v>228</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>356</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>357</v>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B13" s="2" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="B13" s="14" t="s">
-        <v>333</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>359</v>
-      </c>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="B14" s="2"/>
     </row>
-    <row r="14" spans="1:7">
-      <c r="B14" s="14"/>
-      <c r="E14" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>361</v>
-      </c>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="B15" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>362</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>363</v>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="B16" s="14" t="s">
-        <v>488</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>365</v>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="B17" s="14">
-        <v>2022</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>366</v>
-      </c>
-      <c r="F17" s="13" t="s">
-        <v>367</v>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
-      <c r="B18" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>369</v>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>326</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
-      <c r="B19" s="14" t="s">
-        <v>489</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>370</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>371</v>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>327</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="E20" s="13" t="s">
-        <v>372</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="E21" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="E22" s="13" t="s">
-        <v>376</v>
-      </c>
-      <c r="F22" s="13" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="E23" s="13" t="s">
-        <v>378</v>
-      </c>
-      <c r="F23" s="13" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="E24" s="13" t="s">
-        <v>380</v>
-      </c>
-      <c r="F24" s="13" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="E25" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="F25" s="13" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E26" s="13" t="s">
-        <v>384</v>
-      </c>
-      <c r="F26" s="13" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="E28" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="F28" s="13" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="13" t="s">
-        <v>390</v>
-      </c>
-      <c r="F29" s="13" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E30" s="13" t="s">
-        <v>392</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="E31" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="F31" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" t="s">
-        <v>326</v>
-      </c>
-      <c r="E32" s="13" t="s">
-        <v>396</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" t="s">
-        <v>327</v>
-      </c>
-      <c r="E33" s="13" t="s">
-        <v>398</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
         <v>328</v>
-      </c>
-      <c r="E34" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="F34" s="13" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="E35" s="13" t="s">
-        <v>402</v>
-      </c>
-      <c r="F35" s="13" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="E36" s="13" t="s">
-        <v>404</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="E37" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F37" s="13" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="E38" s="13" t="s">
-        <v>408</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="E39" s="13" t="s">
-        <v>410</v>
-      </c>
-      <c r="F39" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="E40" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="E41" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F41" s="13" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="E42" s="13" t="s">
-        <v>416</v>
-      </c>
-      <c r="F42" s="13" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="E43" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="F43" s="13" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="E44" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="F44" s="13" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="E45" s="13" t="s">
-        <v>422</v>
-      </c>
-      <c r="F45" s="13" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="E46" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F46" s="13" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="E47" s="13" t="s">
-        <v>426</v>
-      </c>
-      <c r="F47" s="13" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="E48" s="13" t="s">
-        <v>428</v>
-      </c>
-      <c r="F48" s="13" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F49" s="13" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" s="13" t="s">
-        <v>431</v>
-      </c>
-      <c r="F50" s="13" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="F51" s="13" t="s">
-        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -2601,2264 +1691,897 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4808E40E-62AC-4DD4-A7AE-69521F9CF108}">
-  <dimension ref="A1:H53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="21.75">
-      <c r="A1" s="19" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="C2" t="s">
-        <v>435</v>
-      </c>
-      <c r="D2" t="s">
-        <v>436</v>
-      </c>
-      <c r="E2" t="s">
-        <v>437</v>
-      </c>
-      <c r="F2" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="G2" t="s">
-        <v>436</v>
-      </c>
-      <c r="H2" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="B3" t="s">
-        <v>440</v>
-      </c>
-      <c r="C3" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="D3">
-        <v>40</v>
-      </c>
-      <c r="E3" s="18">
-        <v>5.2400000000000002E-2</v>
-      </c>
-      <c r="F3" s="21">
-        <v>9.2399999999999996E-2</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="18">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="B4" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="18">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>46</v>
-      </c>
-      <c r="E4" s="18">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="F4" s="21">
-        <v>1.7600000000000001E-2</v>
-      </c>
-      <c r="G4">
-        <v>46</v>
-      </c>
-      <c r="H4" s="18">
-        <v>7.4999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="B5" t="s">
-        <v>441</v>
-      </c>
-      <c r="C5" s="18">
-        <v>5.6000000000000001E-2</v>
-      </c>
-      <c r="D5">
-        <v>28</v>
-      </c>
-      <c r="E5" s="18">
-        <v>2.7699999999999999E-2</v>
-      </c>
-      <c r="F5" s="21">
-        <v>8.3699999999999997E-2</v>
-      </c>
-      <c r="G5">
-        <v>11</v>
-      </c>
-      <c r="H5" s="18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B6" t="s">
-        <v>442</v>
-      </c>
-      <c r="C6" s="18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D6">
-        <v>9</v>
-      </c>
-      <c r="E6" s="18">
-        <v>2.9700000000000001E-2</v>
-      </c>
-      <c r="F6" s="21">
-        <v>9.4700000000000006E-2</v>
-      </c>
-      <c r="G6">
-        <v>3</v>
-      </c>
-      <c r="H6" s="18">
-        <v>6.1249999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="B7" t="s">
-        <v>443</v>
-      </c>
-      <c r="C7" s="18">
-        <v>7.2499999999999995E-2</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="18">
-        <v>1.5699999999999999E-2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>8.8200000000000001E-2</v>
-      </c>
-      <c r="G7">
-        <v>7</v>
-      </c>
-      <c r="H7" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="13" t="s">
-        <v>347</v>
-      </c>
-      <c r="B8" t="s">
-        <v>444</v>
-      </c>
-      <c r="C8" s="18">
-        <v>2.9000000000000001E-2</v>
-      </c>
-      <c r="D8">
-        <v>45</v>
-      </c>
-      <c r="E8" s="18">
-        <v>4.87E-2</v>
-      </c>
-      <c r="F8" s="21">
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="G8">
-        <v>15</v>
-      </c>
-      <c r="H8" s="18">
-        <v>8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="13" t="s">
-        <v>349</v>
-      </c>
-      <c r="B9" t="s">
-        <v>445</v>
-      </c>
-      <c r="C9" s="18">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9" s="18">
-        <v>0</v>
-      </c>
-      <c r="F9" s="21">
-        <v>6.3500000000000001E-2</v>
-      </c>
-      <c r="G9">
-        <v>33</v>
-      </c>
-      <c r="H9" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="B10" t="s">
-        <v>446</v>
-      </c>
-      <c r="C10" s="18">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>46</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0</v>
-      </c>
-      <c r="F10" s="21">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>47</v>
-      </c>
-      <c r="H10" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="B11" t="s">
-        <v>447</v>
-      </c>
-      <c r="C11" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D11">
-        <v>-17</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0</v>
-      </c>
-      <c r="F11" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="G11">
-        <v>-38</v>
-      </c>
-      <c r="H11" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="13" t="s">
-        <v>353</v>
-      </c>
-      <c r="B12" t="s">
-        <v>448</v>
-      </c>
-      <c r="C12" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D12">
-        <v>17</v>
-      </c>
-      <c r="E12" s="18">
-        <v>1.01E-2</v>
-      </c>
-      <c r="F12" s="21">
-        <v>7.0099999999999996E-2</v>
-      </c>
-      <c r="G12">
-        <v>23</v>
-      </c>
-      <c r="H12" s="18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="13" t="s">
-        <v>355</v>
-      </c>
-      <c r="B13" t="s">
-        <v>449</v>
-      </c>
-      <c r="C13" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="D13">
-        <v>40</v>
-      </c>
-      <c r="E13" s="18">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="F13" s="21">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="G13">
-        <v>19</v>
-      </c>
-      <c r="H13" s="18">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="B14" t="s">
-        <v>450</v>
-      </c>
-      <c r="C14" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="D14">
-        <v>40</v>
-      </c>
-      <c r="E14" s="18">
-        <v>4.4000000000000003E-3</v>
-      </c>
-      <c r="F14" s="21">
-        <v>4.4400000000000002E-2</v>
-      </c>
-      <c r="G14">
-        <v>45</v>
-      </c>
-      <c r="H14" s="18">
-        <v>5.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="13" t="s">
-        <v>359</v>
-      </c>
-      <c r="B15" t="s">
-        <v>358</v>
-      </c>
-      <c r="C15" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D15">
-        <v>17</v>
-      </c>
-      <c r="E15" s="18">
-        <v>2.0000000000000001E-4</v>
-      </c>
-      <c r="F15" s="21">
-        <v>6.0199999999999997E-2</v>
-      </c>
-      <c r="G15">
-        <v>37</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="B16" t="s">
-        <v>451</v>
-      </c>
-      <c r="C16" s="18">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-      <c r="E16" s="18">
-        <v>2.4799999999999999E-2</v>
-      </c>
-      <c r="F16" s="21">
-        <v>8.7300000000000003E-2</v>
-      </c>
-      <c r="G16">
-        <v>8</v>
-      </c>
-      <c r="H16" s="18">
-        <v>5.2499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="B17" t="s">
-        <v>452</v>
-      </c>
-      <c r="C17" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0</v>
-      </c>
-      <c r="F17" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G17">
-        <v>24</v>
-      </c>
-      <c r="H17" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="13" t="s">
-        <v>365</v>
-      </c>
-      <c r="B18" t="s">
-        <v>364</v>
-      </c>
-      <c r="C18" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D18">
-        <v>17</v>
-      </c>
-      <c r="E18" s="18">
-        <v>9.4000000000000004E-3</v>
-      </c>
-      <c r="F18" s="21">
-        <v>6.9400000000000003E-2</v>
-      </c>
-      <c r="G18">
-        <v>28</v>
-      </c>
-      <c r="H18" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="B19" t="s">
-        <v>453</v>
-      </c>
-      <c r="C19" s="18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D19">
-        <v>9</v>
-      </c>
-      <c r="E19" s="18">
-        <v>2.2100000000000002E-2</v>
-      </c>
-      <c r="F19" s="21">
-        <v>8.7099999999999997E-2</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-      <c r="H19" s="18">
-        <v>4.2500000000000003E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="B20" t="s">
-        <v>454</v>
-      </c>
-      <c r="C20" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D20">
-        <v>17</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0</v>
-      </c>
-      <c r="F20" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="G20">
-        <v>38</v>
-      </c>
-      <c r="H20" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="13" t="s">
-        <v>371</v>
-      </c>
-      <c r="B21" t="s">
-        <v>455</v>
-      </c>
-      <c r="C21" s="18">
-        <v>4.4499999999999998E-2</v>
-      </c>
-      <c r="D21">
-        <v>38</v>
-      </c>
-      <c r="E21" s="18">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="F21" s="21">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="B22" t="s">
-        <v>372</v>
-      </c>
-      <c r="C22" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D22">
-        <v>29</v>
-      </c>
-      <c r="E22" s="18">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
-        <v>5.5E-2</v>
-      </c>
-      <c r="G22">
-        <v>42</v>
-      </c>
-      <c r="H22" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" t="s">
-        <v>456</v>
-      </c>
-      <c r="C23" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D23">
-        <v>17</v>
-      </c>
-      <c r="E23" s="18">
-        <v>0</v>
-      </c>
-      <c r="F23" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="G23">
-        <v>38</v>
-      </c>
-      <c r="H23" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="13" t="s">
-        <v>377</v>
-      </c>
-      <c r="B24" t="s">
-        <v>457</v>
-      </c>
-      <c r="C24" s="18">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D24">
-        <v>13</v>
-      </c>
-      <c r="E24" s="18">
-        <v>0</v>
-      </c>
-      <c r="F24" s="21">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G24">
-        <v>35</v>
-      </c>
-      <c r="H24" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="B25" t="s">
-        <v>458</v>
-      </c>
-      <c r="C25" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D25">
-        <v>17</v>
-      </c>
-      <c r="E25" s="18">
-        <v>0</v>
-      </c>
-      <c r="F25" s="21">
-        <v>0.06</v>
-      </c>
-      <c r="G25">
-        <v>38</v>
-      </c>
-      <c r="H25" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="B26" t="s">
-        <v>459</v>
-      </c>
-      <c r="C26" s="18">
-        <v>6.8750000000000006E-2</v>
-      </c>
-      <c r="D26">
-        <v>6</v>
-      </c>
-      <c r="E26" s="18">
-        <v>6.1000000000000004E-3</v>
-      </c>
-      <c r="F26" s="21">
-        <v>7.4899999999999994E-2</v>
-      </c>
-      <c r="G26">
-        <v>17</v>
-      </c>
-      <c r="H26" s="18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="B27" t="s">
-        <v>460</v>
-      </c>
-      <c r="C27" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-      <c r="E27" s="18">
-        <v>6.9999999999999999E-4</v>
-      </c>
-      <c r="F27" s="21">
-        <v>7.0699999999999999E-2</v>
-      </c>
-      <c r="G27">
-        <v>22</v>
-      </c>
-      <c r="H27" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="13" t="s">
-        <v>385</v>
-      </c>
-      <c r="B28" t="s">
-        <v>461</v>
-      </c>
-      <c r="C28" s="18">
-        <v>4.2250000000000003E-2</v>
-      </c>
-      <c r="D28">
-        <v>39</v>
-      </c>
-      <c r="E28" s="18">
-        <v>4.07E-2</v>
-      </c>
-      <c r="F28" s="21">
-        <v>8.3000000000000004E-2</v>
-      </c>
-      <c r="G28">
-        <v>12</v>
-      </c>
-      <c r="H28" s="18">
-        <v>5.7630000000000001E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B29" t="s">
-        <v>462</v>
-      </c>
-      <c r="C29" s="18">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>46</v>
-      </c>
-      <c r="E29" s="18">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>47</v>
-      </c>
-      <c r="H29" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="B30" t="s">
-        <v>463</v>
-      </c>
-      <c r="C30" s="18">
-        <v>5.5E-2</v>
-      </c>
-      <c r="D30">
-        <v>29</v>
-      </c>
-      <c r="E30" s="18">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F30" s="21">
-        <v>6.9400000000000003E-2</v>
-      </c>
-      <c r="G30">
-        <v>29</v>
-      </c>
-      <c r="H30" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="13" t="s">
-        <v>391</v>
-      </c>
-      <c r="B31" t="s">
-        <v>464</v>
-      </c>
-      <c r="C31" s="18">
-        <v>6.8500000000000005E-2</v>
-      </c>
-      <c r="D31">
-        <v>7</v>
-      </c>
-      <c r="E31" s="18">
-        <v>1.38E-2</v>
-      </c>
-      <c r="F31" s="21">
-        <v>8.2299999999999998E-2</v>
-      </c>
-      <c r="G31">
-        <v>13</v>
-      </c>
-      <c r="H31" s="18">
-        <v>1.5299999999999999E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="13" t="s">
-        <v>393</v>
-      </c>
-      <c r="B32" t="s">
-        <v>465</v>
-      </c>
-      <c r="C32" s="18">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>46</v>
-      </c>
-      <c r="E32" s="18">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>47</v>
-      </c>
-      <c r="H32" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="B33" t="s">
-        <v>466</v>
-      </c>
-      <c r="C33" s="18">
-        <v>6.6250000000000003E-2</v>
-      </c>
-      <c r="D33">
-        <v>8</v>
-      </c>
-      <c r="E33" s="18">
-        <v>-2.9999999999999997E-4</v>
-      </c>
-      <c r="F33" s="21">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="G33">
-        <v>30</v>
-      </c>
-      <c r="H33" s="18">
-        <v>3.313E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="13" t="s">
-        <v>397</v>
-      </c>
-      <c r="B34" t="s">
-        <v>467</v>
-      </c>
-      <c r="C34" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D34">
-        <v>32</v>
-      </c>
-      <c r="E34" s="18">
-        <v>2.7199999999999998E-2</v>
-      </c>
-      <c r="F34" s="21">
-        <v>7.7200000000000005E-2</v>
-      </c>
-      <c r="G34">
-        <v>16</v>
-      </c>
-      <c r="H34" s="18">
-        <v>4.3130000000000002E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="13" t="s">
-        <v>399</v>
-      </c>
-      <c r="B35" t="s">
-        <v>468</v>
-      </c>
-      <c r="C35" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="D35">
-        <v>40</v>
-      </c>
-      <c r="E35" s="18">
-        <v>4.5199999999999997E-2</v>
-      </c>
-      <c r="F35" s="21">
-        <v>8.5199999999999998E-2</v>
-      </c>
-      <c r="G35">
-        <v>10</v>
-      </c>
-      <c r="H35" s="18">
-        <v>4.8750000000000002E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="13" t="s">
-        <v>401</v>
-      </c>
-      <c r="B36" t="s">
-        <v>469</v>
-      </c>
-      <c r="C36" s="18">
-        <v>4.7500000000000001E-2</v>
-      </c>
-      <c r="D36">
-        <v>35</v>
-      </c>
-      <c r="E36" s="18">
-        <v>2.23E-2</v>
-      </c>
-      <c r="F36" s="21">
-        <v>6.9800000000000001E-2</v>
-      </c>
-      <c r="G36">
-        <v>26</v>
-      </c>
-      <c r="H36" s="18">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="13" t="s">
-        <v>403</v>
-      </c>
-      <c r="B37" t="s">
-        <v>470</v>
-      </c>
-      <c r="C37" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D37">
-        <v>32</v>
-      </c>
-      <c r="E37" s="18">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="F37" s="21">
-        <v>6.9599999999999995E-2</v>
-      </c>
-      <c r="G37">
-        <v>27</v>
-      </c>
-      <c r="H37" s="18">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="B38" t="s">
-        <v>404</v>
-      </c>
-      <c r="C38" s="18">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="D38">
-        <v>27</v>
-      </c>
-      <c r="E38" s="18">
-        <v>1.49E-2</v>
-      </c>
-      <c r="F38" s="21">
-        <v>7.2400000000000006E-2</v>
-      </c>
-      <c r="G38">
-        <v>20</v>
-      </c>
-      <c r="H38" s="18">
-        <v>2.2499999999999999E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="13" t="s">
-        <v>407</v>
-      </c>
-      <c r="B39" t="s">
-        <v>471</v>
-      </c>
-      <c r="C39" s="18">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D39">
-        <v>36</v>
-      </c>
-      <c r="E39" s="18">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="F39" s="21">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="G39">
-        <v>6</v>
-      </c>
-      <c r="H39" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="13" t="s">
-        <v>409</v>
-      </c>
-      <c r="B40" t="s">
-        <v>472</v>
-      </c>
-      <c r="C40" s="18">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>46</v>
-      </c>
-      <c r="E40" s="18">
-        <v>0</v>
-      </c>
-      <c r="F40" s="21">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <v>47</v>
-      </c>
-      <c r="H40" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="B41" t="s">
-        <v>473</v>
-      </c>
-      <c r="C41" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D41">
-        <v>17</v>
-      </c>
-      <c r="E41" s="18">
-        <v>3.3999999999999998E-3</v>
-      </c>
-      <c r="F41" s="21">
-        <v>6.3399999999999998E-2</v>
-      </c>
-      <c r="G41">
-        <v>34</v>
-      </c>
-      <c r="H41" s="18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="B42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C42" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" s="18">
-        <v>0</v>
-      </c>
-      <c r="F42" s="21">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="G42">
-        <v>24</v>
-      </c>
-      <c r="H42" s="18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="13" t="s">
-        <v>415</v>
-      </c>
-      <c r="B43" t="s">
-        <v>475</v>
-      </c>
-      <c r="C43" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D43">
-        <v>17</v>
-      </c>
-      <c r="E43" s="18">
-        <v>1.44E-2</v>
-      </c>
-      <c r="F43" s="21">
-        <v>7.4399999999999994E-2</v>
-      </c>
-      <c r="G43">
-        <v>18</v>
-      </c>
-      <c r="H43" s="18">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
-      <c r="A44" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="B44" t="s">
-        <v>476</v>
-      </c>
-      <c r="C44" s="18">
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="D44">
-        <v>36</v>
-      </c>
-      <c r="E44" s="18">
-        <v>1.9E-2</v>
-      </c>
-      <c r="F44" s="21">
-        <v>6.4000000000000001E-2</v>
-      </c>
-      <c r="G44">
-        <v>32</v>
-      </c>
-      <c r="H44" s="18">
-        <v>4.4999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="B45" t="s">
-        <v>477</v>
-      </c>
-      <c r="C45" s="18">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D45">
-        <v>2</v>
-      </c>
-      <c r="E45" s="18">
-        <v>2.5499999999999998E-2</v>
-      </c>
-      <c r="F45" s="21">
-        <v>9.5500000000000002E-2</v>
-      </c>
-      <c r="G45">
-        <v>2</v>
-      </c>
-      <c r="H45" s="18">
-        <v>2.75E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
-      <c r="A46" s="13" t="s">
-        <v>421</v>
-      </c>
-      <c r="B46" t="s">
-        <v>478</v>
-      </c>
-      <c r="C46" s="18">
-        <v>6.25E-2</v>
-      </c>
-      <c r="D46">
-        <v>13</v>
-      </c>
-      <c r="E46" s="18">
-        <v>1.95E-2</v>
-      </c>
-      <c r="F46" s="21">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="G46">
-        <v>14</v>
-      </c>
-      <c r="H46" s="18">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="B47" t="s">
-        <v>479</v>
-      </c>
-      <c r="C47" s="18">
-        <v>6.0999999999999999E-2</v>
-      </c>
-      <c r="D47">
-        <v>16</v>
-      </c>
-      <c r="E47" s="18">
-        <v>1.09E-2</v>
-      </c>
-      <c r="F47" s="21">
-        <v>7.1900000000000006E-2</v>
-      </c>
-      <c r="G47">
-        <v>21</v>
-      </c>
-      <c r="H47" s="18">
-        <v>2.9499999999999998E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="13" t="s">
-        <v>425</v>
-      </c>
-      <c r="B48" t="s">
-        <v>480</v>
-      </c>
-      <c r="C48" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D48">
-        <v>17</v>
-      </c>
-      <c r="E48" s="18">
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="F48" s="21">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="G48">
-        <v>36</v>
-      </c>
-      <c r="H48" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="B49" t="s">
-        <v>481</v>
-      </c>
-      <c r="C49" s="18">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="D49">
-        <v>31</v>
-      </c>
-      <c r="E49" s="18">
-        <v>4.4999999999999997E-3</v>
-      </c>
-      <c r="F49" s="21">
-        <v>5.7500000000000002E-2</v>
-      </c>
-      <c r="G49">
-        <v>41</v>
-      </c>
-      <c r="H49" s="18">
-        <v>7.0000000000000001E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="B50" t="s">
-        <v>482</v>
-      </c>
-      <c r="C50" s="18">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50" s="18">
-        <v>2.7900000000000001E-2</v>
-      </c>
-      <c r="F50" s="21">
-        <v>9.2899999999999996E-2</v>
-      </c>
-      <c r="G50">
-        <v>4</v>
-      </c>
-      <c r="H50" s="18">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
-      <c r="A51" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="B51" t="s">
-        <v>483</v>
-      </c>
-      <c r="C51" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="D51">
-        <v>17</v>
-      </c>
-      <c r="E51" s="18">
-        <v>5.4999999999999997E-3</v>
-      </c>
-      <c r="F51" s="21">
-        <v>6.5500000000000003E-2</v>
-      </c>
-      <c r="G51">
-        <v>31</v>
-      </c>
-      <c r="H51" s="18">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
-      <c r="A52" s="13" t="s">
-        <v>432</v>
-      </c>
-      <c r="B52" t="s">
-        <v>484</v>
-      </c>
-      <c r="C52" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="D52">
-        <v>32</v>
-      </c>
-      <c r="E52" s="18">
-        <v>4.3E-3</v>
-      </c>
-      <c r="F52" s="21">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="G52">
-        <v>43</v>
-      </c>
-      <c r="H52" s="18">
-        <v>1.7500000000000002E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="B53" t="s">
-        <v>485</v>
-      </c>
-      <c r="C53" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="D53">
-        <v>40</v>
-      </c>
-      <c r="E53" s="18">
-        <v>1.3599999999999999E-2</v>
-      </c>
-      <c r="F53" s="21">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="G53">
-        <v>44</v>
-      </c>
-      <c r="H53" s="18">
-        <v>0.02</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFE65BF-AB38-4432-8FBE-6BE791426801}">
   <dimension ref="A1:CH81"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="CG8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="CG53" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="CG8" sqref="CG8"/>
+      <selection pane="bottomRight" activeCell="CJ81" sqref="CJ81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="36.28515625" customWidth="1"/>
+    <col min="2" max="2" width="36.26953125" customWidth="1"/>
     <col min="3" max="84" width="0" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="23.42578125" customWidth="1"/>
-    <col min="86" max="86" width="30.85546875" customWidth="1"/>
+    <col min="85" max="85" width="23.453125" customWidth="1"/>
+    <col min="86" max="86" width="30.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="18">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:86" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="23"/>
-      <c r="AI1" s="23"/>
-      <c r="AJ1" s="23"/>
-      <c r="AK1" s="23"/>
-      <c r="AL1" s="23"/>
-      <c r="AM1" s="23"/>
-      <c r="AN1" s="23"/>
-      <c r="AO1" s="23"/>
-      <c r="AP1" s="23"/>
-      <c r="AQ1" s="23"/>
-      <c r="AR1" s="23"/>
-      <c r="AS1" s="23"/>
-      <c r="AT1" s="23"/>
-      <c r="AU1" s="23"/>
-      <c r="AV1" s="23"/>
-      <c r="AW1" s="23"/>
-      <c r="AX1" s="23"/>
-      <c r="AY1" s="23"/>
-      <c r="AZ1" s="23"/>
-      <c r="BA1" s="23"/>
-      <c r="BB1" s="23"/>
-      <c r="BC1" s="23"/>
-      <c r="BD1" s="23"/>
-      <c r="BE1" s="23"/>
-      <c r="BF1" s="23"/>
-      <c r="BG1" s="23"/>
-      <c r="BH1" s="23"/>
-      <c r="BI1" s="23"/>
-      <c r="BJ1" s="23"/>
-      <c r="BK1" s="23"/>
-      <c r="BL1" s="23"/>
-      <c r="BM1" s="23"/>
-      <c r="BN1" s="23"/>
-      <c r="BO1" s="23"/>
-      <c r="BP1" s="23"/>
-      <c r="BQ1" s="23"/>
-      <c r="BR1" s="23"/>
-      <c r="BS1" s="23"/>
-      <c r="BT1" s="23"/>
-      <c r="BU1" s="23"/>
-      <c r="BV1" s="23"/>
-      <c r="BW1" s="23"/>
-      <c r="BX1" s="23"/>
-      <c r="BY1" s="23"/>
-      <c r="BZ1" s="23"/>
-      <c r="CA1" s="23"/>
-      <c r="CB1" s="23"/>
-      <c r="CC1" s="23"/>
-      <c r="CD1" s="23"/>
-      <c r="CE1" s="23"/>
-      <c r="CF1" s="23"/>
-      <c r="CG1" s="23"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="6"/>
+      <c r="AH1" s="6"/>
+      <c r="AI1" s="6"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="6"/>
+      <c r="AT1" s="6"/>
+      <c r="AU1" s="6"/>
+      <c r="AV1" s="6"/>
+      <c r="AW1" s="6"/>
+      <c r="AX1" s="6"/>
+      <c r="AY1" s="6"/>
+      <c r="AZ1" s="6"/>
+      <c r="BA1" s="6"/>
+      <c r="BB1" s="6"/>
+      <c r="BC1" s="6"/>
+      <c r="BD1" s="6"/>
+      <c r="BE1" s="6"/>
+      <c r="BF1" s="6"/>
+      <c r="BG1" s="6"/>
+      <c r="BH1" s="6"/>
+      <c r="BI1" s="6"/>
+      <c r="BJ1" s="6"/>
+      <c r="BK1" s="6"/>
+      <c r="BL1" s="6"/>
+      <c r="BM1" s="6"/>
+      <c r="BN1" s="6"/>
+      <c r="BO1" s="6"/>
+      <c r="BP1" s="6"/>
+      <c r="BQ1" s="6"/>
+      <c r="BR1" s="6"/>
+      <c r="BS1" s="6"/>
+      <c r="BT1" s="6"/>
+      <c r="BU1" s="6"/>
+      <c r="BV1" s="6"/>
+      <c r="BW1" s="6"/>
+      <c r="BX1" s="6"/>
+      <c r="BY1" s="6"/>
+      <c r="BZ1" s="6"/>
+      <c r="CA1" s="6"/>
+      <c r="CB1" s="6"/>
+      <c r="CC1" s="6"/>
+      <c r="CD1" s="6"/>
+      <c r="CE1" s="6"/>
+      <c r="CF1" s="6"/>
+      <c r="CG1" s="6"/>
     </row>
-    <row r="2" spans="1:86" ht="16.5">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:86" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="23"/>
-      <c r="AI2" s="23"/>
-      <c r="AJ2" s="23"/>
-      <c r="AK2" s="23"/>
-      <c r="AL2" s="23"/>
-      <c r="AM2" s="23"/>
-      <c r="AN2" s="23"/>
-      <c r="AO2" s="23"/>
-      <c r="AP2" s="23"/>
-      <c r="AQ2" s="23"/>
-      <c r="AR2" s="23"/>
-      <c r="AS2" s="23"/>
-      <c r="AT2" s="23"/>
-      <c r="AU2" s="23"/>
-      <c r="AV2" s="23"/>
-      <c r="AW2" s="23"/>
-      <c r="AX2" s="23"/>
-      <c r="AY2" s="23"/>
-      <c r="AZ2" s="23"/>
-      <c r="BA2" s="23"/>
-      <c r="BB2" s="23"/>
-      <c r="BC2" s="23"/>
-      <c r="BD2" s="23"/>
-      <c r="BE2" s="23"/>
-      <c r="BF2" s="23"/>
-      <c r="BG2" s="23"/>
-      <c r="BH2" s="23"/>
-      <c r="BI2" s="23"/>
-      <c r="BJ2" s="23"/>
-      <c r="BK2" s="23"/>
-      <c r="BL2" s="23"/>
-      <c r="BM2" s="23"/>
-      <c r="BN2" s="23"/>
-      <c r="BO2" s="23"/>
-      <c r="BP2" s="23"/>
-      <c r="BQ2" s="23"/>
-      <c r="BR2" s="23"/>
-      <c r="BS2" s="23"/>
-      <c r="BT2" s="23"/>
-      <c r="BU2" s="23"/>
-      <c r="BV2" s="23"/>
-      <c r="BW2" s="23"/>
-      <c r="BX2" s="23"/>
-      <c r="BY2" s="23"/>
-      <c r="BZ2" s="23"/>
-      <c r="CA2" s="23"/>
-      <c r="CB2" s="23"/>
-      <c r="CC2" s="23"/>
-      <c r="CD2" s="23"/>
-      <c r="CE2" s="23"/>
-      <c r="CF2" s="23"/>
-      <c r="CG2" s="23"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+      <c r="X2" s="6"/>
+      <c r="Y2" s="6"/>
+      <c r="Z2" s="6"/>
+      <c r="AA2" s="6"/>
+      <c r="AB2" s="6"/>
+      <c r="AC2" s="6"/>
+      <c r="AD2" s="6"/>
+      <c r="AE2" s="6"/>
+      <c r="AF2" s="6"/>
+      <c r="AG2" s="6"/>
+      <c r="AH2" s="6"/>
+      <c r="AI2" s="6"/>
+      <c r="AJ2" s="6"/>
+      <c r="AK2" s="6"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="6"/>
+      <c r="AO2" s="6"/>
+      <c r="AP2" s="6"/>
+      <c r="AQ2" s="6"/>
+      <c r="AR2" s="6"/>
+      <c r="AS2" s="6"/>
+      <c r="AT2" s="6"/>
+      <c r="AU2" s="6"/>
+      <c r="AV2" s="6"/>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6"/>
+      <c r="AY2" s="6"/>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="6"/>
+      <c r="BB2" s="6"/>
+      <c r="BC2" s="6"/>
+      <c r="BD2" s="6"/>
+      <c r="BE2" s="6"/>
+      <c r="BF2" s="6"/>
+      <c r="BG2" s="6"/>
+      <c r="BH2" s="6"/>
+      <c r="BI2" s="6"/>
+      <c r="BJ2" s="6"/>
+      <c r="BK2" s="6"/>
+      <c r="BL2" s="6"/>
+      <c r="BM2" s="6"/>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="6"/>
+      <c r="BP2" s="6"/>
+      <c r="BQ2" s="6"/>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="6"/>
+      <c r="BT2" s="6"/>
+      <c r="BU2" s="6"/>
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="6"/>
+      <c r="BX2" s="6"/>
+      <c r="BY2" s="6"/>
+      <c r="BZ2" s="6"/>
+      <c r="CA2" s="6"/>
+      <c r="CB2" s="6"/>
+      <c r="CC2" s="6"/>
+      <c r="CD2" s="6"/>
+      <c r="CE2" s="6"/>
+      <c r="CF2" s="6"/>
+      <c r="CG2" s="6"/>
     </row>
-    <row r="3" spans="1:86">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="23"/>
-      <c r="AS3" s="23"/>
-      <c r="AT3" s="23"/>
-      <c r="AU3" s="23"/>
-      <c r="AV3" s="23"/>
-      <c r="AW3" s="23"/>
-      <c r="AX3" s="23"/>
-      <c r="AY3" s="23"/>
-      <c r="AZ3" s="23"/>
-      <c r="BA3" s="23"/>
-      <c r="BB3" s="23"/>
-      <c r="BC3" s="23"/>
-      <c r="BD3" s="23"/>
-      <c r="BE3" s="23"/>
-      <c r="BF3" s="23"/>
-      <c r="BG3" s="23"/>
-      <c r="BH3" s="23"/>
-      <c r="BI3" s="23"/>
-      <c r="BJ3" s="23"/>
-      <c r="BK3" s="23"/>
-      <c r="BL3" s="23"/>
-      <c r="BM3" s="23"/>
-      <c r="BN3" s="23"/>
-      <c r="BO3" s="23"/>
-      <c r="BP3" s="23"/>
-      <c r="BQ3" s="23"/>
-      <c r="BR3" s="23"/>
-      <c r="BS3" s="23"/>
-      <c r="BT3" s="23"/>
-      <c r="BU3" s="23"/>
-      <c r="BV3" s="23"/>
-      <c r="BW3" s="23"/>
-      <c r="BX3" s="23"/>
-      <c r="BY3" s="23"/>
-      <c r="BZ3" s="23"/>
-      <c r="CA3" s="23"/>
-      <c r="CB3" s="23"/>
-      <c r="CC3" s="23"/>
-      <c r="CD3" s="23"/>
-      <c r="CE3" s="23"/>
-      <c r="CF3" s="23"/>
-      <c r="CG3" s="23"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+      <c r="X3" s="6"/>
+      <c r="Y3" s="6"/>
+      <c r="Z3" s="6"/>
+      <c r="AA3" s="6"/>
+      <c r="AB3" s="6"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="6"/>
+      <c r="AE3" s="6"/>
+      <c r="AF3" s="6"/>
+      <c r="AG3" s="6"/>
+      <c r="AH3" s="6"/>
+      <c r="AI3" s="6"/>
+      <c r="AJ3" s="6"/>
+      <c r="AK3" s="6"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="6"/>
+      <c r="AO3" s="6"/>
+      <c r="AP3" s="6"/>
+      <c r="AQ3" s="6"/>
+      <c r="AR3" s="6"/>
+      <c r="AS3" s="6"/>
+      <c r="AT3" s="6"/>
+      <c r="AU3" s="6"/>
+      <c r="AV3" s="6"/>
+      <c r="AW3" s="6"/>
+      <c r="AX3" s="6"/>
+      <c r="AY3" s="6"/>
+      <c r="AZ3" s="6"/>
+      <c r="BA3" s="6"/>
+      <c r="BB3" s="6"/>
+      <c r="BC3" s="6"/>
+      <c r="BD3" s="6"/>
+      <c r="BE3" s="6"/>
+      <c r="BF3" s="6"/>
+      <c r="BG3" s="6"/>
+      <c r="BH3" s="6"/>
+      <c r="BI3" s="6"/>
+      <c r="BJ3" s="6"/>
+      <c r="BK3" s="6"/>
+      <c r="BL3" s="6"/>
+      <c r="BM3" s="6"/>
+      <c r="BN3" s="6"/>
+      <c r="BO3" s="6"/>
+      <c r="BP3" s="6"/>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
+      <c r="CE3" s="6"/>
+      <c r="CF3" s="6"/>
+      <c r="CG3" s="6"/>
     </row>
-    <row r="4" spans="1:86">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
-      <c r="U4" s="23"/>
-      <c r="V4" s="23"/>
-      <c r="W4" s="23"/>
-      <c r="X4" s="23"/>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="23"/>
-      <c r="AG4" s="23"/>
-      <c r="AH4" s="23"/>
-      <c r="AI4" s="23"/>
-      <c r="AJ4" s="23"/>
-      <c r="AK4" s="23"/>
-      <c r="AL4" s="23"/>
-      <c r="AM4" s="23"/>
-      <c r="AN4" s="23"/>
-      <c r="AO4" s="23"/>
-      <c r="AP4" s="23"/>
-      <c r="AQ4" s="23"/>
-      <c r="AR4" s="23"/>
-      <c r="AS4" s="23"/>
-      <c r="AT4" s="23"/>
-      <c r="AU4" s="23"/>
-      <c r="AV4" s="23"/>
-      <c r="AW4" s="23"/>
-      <c r="AX4" s="23"/>
-      <c r="AY4" s="23"/>
-      <c r="AZ4" s="23"/>
-      <c r="BA4" s="23"/>
-      <c r="BB4" s="23"/>
-      <c r="BC4" s="23"/>
-      <c r="BD4" s="23"/>
-      <c r="BE4" s="23"/>
-      <c r="BF4" s="23"/>
-      <c r="BG4" s="23"/>
-      <c r="BH4" s="23"/>
-      <c r="BI4" s="23"/>
-      <c r="BJ4" s="23"/>
-      <c r="BK4" s="23"/>
-      <c r="BL4" s="23"/>
-      <c r="BM4" s="23"/>
-      <c r="BN4" s="23"/>
-      <c r="BO4" s="23"/>
-      <c r="BP4" s="23"/>
-      <c r="BQ4" s="23"/>
-      <c r="BR4" s="23"/>
-      <c r="BS4" s="23"/>
-      <c r="BT4" s="23"/>
-      <c r="BU4" s="23"/>
-      <c r="BV4" s="23"/>
-      <c r="BW4" s="23"/>
-      <c r="BX4" s="23"/>
-      <c r="BY4" s="23"/>
-      <c r="BZ4" s="23"/>
-      <c r="CA4" s="23"/>
-      <c r="CB4" s="23"/>
-      <c r="CC4" s="23"/>
-      <c r="CD4" s="23"/>
-      <c r="CE4" s="23"/>
-      <c r="CF4" s="23"/>
-      <c r="CG4" s="23"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+      <c r="W4" s="6"/>
+      <c r="X4" s="6"/>
+      <c r="Y4" s="6"/>
+      <c r="Z4" s="6"/>
+      <c r="AA4" s="6"/>
+      <c r="AB4" s="6"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="6"/>
+      <c r="AE4" s="6"/>
+      <c r="AF4" s="6"/>
+      <c r="AG4" s="6"/>
+      <c r="AH4" s="6"/>
+      <c r="AI4" s="6"/>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" s="6"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="6"/>
+      <c r="AO4" s="6"/>
+      <c r="AP4" s="6"/>
+      <c r="AQ4" s="6"/>
+      <c r="AR4" s="6"/>
+      <c r="AS4" s="6"/>
+      <c r="AT4" s="6"/>
+      <c r="AU4" s="6"/>
+      <c r="AV4" s="6"/>
+      <c r="AW4" s="6"/>
+      <c r="AX4" s="6"/>
+      <c r="AY4" s="6"/>
+      <c r="AZ4" s="6"/>
+      <c r="BA4" s="6"/>
+      <c r="BB4" s="6"/>
+      <c r="BC4" s="6"/>
+      <c r="BD4" s="6"/>
+      <c r="BE4" s="6"/>
+      <c r="BF4" s="6"/>
+      <c r="BG4" s="6"/>
+      <c r="BH4" s="6"/>
+      <c r="BI4" s="6"/>
+      <c r="BJ4" s="6"/>
+      <c r="BK4" s="6"/>
+      <c r="BL4" s="6"/>
+      <c r="BM4" s="6"/>
+      <c r="BN4" s="6"/>
+      <c r="BO4" s="6"/>
+      <c r="BP4" s="6"/>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
+      <c r="CE4" s="6"/>
+      <c r="CF4" s="6"/>
+      <c r="CG4" s="6"/>
     </row>
-    <row r="6" spans="1:86">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="4" t="s">
+      <c r="AB6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="4" t="s">
+      <c r="AC6" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="4" t="s">
+      <c r="AD6" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="AE6" s="4" t="s">
+      <c r="AE6" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="AF6" s="4" t="s">
+      <c r="AF6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="AG6" s="4" t="s">
+      <c r="AG6" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="AH6" s="4" t="s">
+      <c r="AH6" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="AI6" s="4" t="s">
+      <c r="AI6" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6" s="4" t="s">
+      <c r="AJ6" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="AK6" s="4" t="s">
+      <c r="AK6" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="AL6" s="4" t="s">
+      <c r="AL6" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="AM6" s="4" t="s">
+      <c r="AM6" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AN6" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="AO6" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="AP6" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="AQ6" s="4" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="AR6" s="4" t="s">
+      <c r="AR6" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="AS6" s="4" t="s">
+      <c r="AS6" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="AT6" s="4" t="s">
+      <c r="AT6" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="AU6" s="4" t="s">
+      <c r="AU6" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="AV6" s="4" t="s">
+      <c r="AV6" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="AW6" s="4" t="s">
+      <c r="AW6" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="AX6" s="4" t="s">
+      <c r="AX6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="AY6" s="4" t="s">
+      <c r="AY6" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="AZ6" s="4" t="s">
+      <c r="AZ6" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="BA6" s="4" t="s">
+      <c r="BA6" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="4" t="s">
+      <c r="BB6" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="4" t="s">
+      <c r="BC6" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="BD6" s="4" t="s">
+      <c r="BD6" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="BE6" s="4" t="s">
+      <c r="BE6" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="BF6" s="4" t="s">
+      <c r="BF6" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="BG6" s="4" t="s">
+      <c r="BG6" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="BH6" s="4" t="s">
+      <c r="BH6" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="BI6" s="4" t="s">
+      <c r="BI6" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="BJ6" s="4" t="s">
+      <c r="BJ6" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="BK6" s="4" t="s">
+      <c r="BK6" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="BL6" s="4" t="s">
+      <c r="BL6" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="BM6" s="4" t="s">
+      <c r="BM6" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="BN6" s="4" t="s">
+      <c r="BN6" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="BO6" s="4" t="s">
+      <c r="BO6" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="BP6" s="4" t="s">
+      <c r="BP6" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="BQ6" s="4" t="s">
+      <c r="BQ6" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="BR6" s="4" t="s">
+      <c r="BR6" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="BS6" s="4" t="s">
+      <c r="BS6" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="BT6" s="4" t="s">
+      <c r="BT6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="BU6" s="4" t="s">
+      <c r="BU6" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="BV6" s="4" t="s">
+      <c r="BV6" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="BW6" s="4" t="s">
+      <c r="BW6" s="9" t="s">
         <v>126</v>
       </c>
-      <c r="BX6" s="4" t="s">
+      <c r="BX6" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="BY6" s="4" t="s">
+      <c r="BY6" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="BZ6" s="4" t="s">
+      <c r="BZ6" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="CA6" s="4" t="s">
+      <c r="CA6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="CB6" s="4" t="s">
+      <c r="CB6" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="CC6" s="4" t="s">
+      <c r="CC6" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="CD6" s="4" t="s">
+      <c r="CD6" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="CE6" s="4" t="s">
+      <c r="CE6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="CF6" s="4" t="s">
+      <c r="CF6" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="CG6" s="4" t="s">
+      <c r="CG6" s="9" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
-      <c r="A7" s="25"/>
-      <c r="B7" s="4" t="s">
+    <row r="7" spans="1:86" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="9" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="9" t="s">
         <v>155</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="AB7" s="4" t="s">
+      <c r="AB7" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="AC7" s="4" t="s">
+      <c r="AC7" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="AD7" s="4" t="s">
+      <c r="AD7" s="9" t="s">
         <v>165</v>
       </c>
-      <c r="AE7" s="4" t="s">
+      <c r="AE7" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="AF7" s="4" t="s">
+      <c r="AF7" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="AG7" s="4" t="s">
+      <c r="AG7" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="AH7" s="4" t="s">
+      <c r="AH7" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="AI7" s="4" t="s">
+      <c r="AI7" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="AJ7" s="4" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="AK7" s="4" t="s">
+      <c r="AK7" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="AL7" s="4" t="s">
+      <c r="AL7" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="AM7" s="4" t="s">
+      <c r="AM7" s="9" t="s">
         <v>174</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AN7" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="AO7" s="4" t="s">
+      <c r="AO7" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="AP7" s="4" t="s">
+      <c r="AP7" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="AQ7" s="4" t="s">
+      <c r="AQ7" s="9" t="s">
         <v>178</v>
       </c>
-      <c r="AR7" s="4" t="s">
+      <c r="AR7" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="AS7" s="4" t="s">
+      <c r="AS7" s="9" t="s">
         <v>180</v>
       </c>
-      <c r="AT7" s="4" t="s">
+      <c r="AT7" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="AU7" s="4" t="s">
+      <c r="AU7" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="AV7" s="4" t="s">
+      <c r="AV7" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="AW7" s="4" t="s">
+      <c r="AW7" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="AX7" s="4" t="s">
+      <c r="AX7" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="AY7" s="4" t="s">
+      <c r="AY7" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="AZ7" s="4" t="s">
+      <c r="AZ7" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="BA7" s="4" t="s">
+      <c r="BA7" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="BB7" s="4" t="s">
+      <c r="BB7" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="BC7" s="4" t="s">
+      <c r="BC7" s="9" t="s">
         <v>190</v>
       </c>
-      <c r="BD7" s="4" t="s">
+      <c r="BD7" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="BE7" s="4" t="s">
+      <c r="BE7" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="BF7" s="4" t="s">
+      <c r="BF7" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="BG7" s="4" t="s">
+      <c r="BG7" s="9" t="s">
         <v>194</v>
       </c>
-      <c r="BH7" s="4" t="s">
+      <c r="BH7" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="BI7" s="4" t="s">
+      <c r="BI7" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="BJ7" s="4" t="s">
+      <c r="BJ7" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="BK7" s="4" t="s">
+      <c r="BK7" s="9" t="s">
         <v>198</v>
       </c>
-      <c r="BL7" s="4" t="s">
+      <c r="BL7" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="BM7" s="4" t="s">
+      <c r="BM7" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="BN7" s="4" t="s">
+      <c r="BN7" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="BO7" s="4" t="s">
+      <c r="BO7" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="BP7" s="4" t="s">
+      <c r="BP7" s="9" t="s">
         <v>203</v>
       </c>
-      <c r="BQ7" s="4" t="s">
+      <c r="BQ7" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="BR7" s="4" t="s">
+      <c r="BR7" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="BS7" s="4" t="s">
+      <c r="BS7" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="BT7" s="4" t="s">
+      <c r="BT7" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="BU7" s="4" t="s">
+      <c r="BU7" s="9" t="s">
         <v>208</v>
       </c>
-      <c r="BV7" s="4" t="s">
+      <c r="BV7" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="BW7" s="4" t="s">
+      <c r="BW7" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="BX7" s="4" t="s">
+      <c r="BX7" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="BY7" s="4" t="s">
+      <c r="BY7" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="BZ7" s="4" t="s">
+      <c r="BZ7" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="CA7" s="4" t="s">
+      <c r="CA7" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="CB7" s="4" t="s">
+      <c r="CB7" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="CC7" s="4" t="s">
+      <c r="CC7" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="CD7" s="4" t="s">
+      <c r="CD7" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="CE7" s="4" t="s">
+      <c r="CE7" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="CF7" s="4" t="s">
+      <c r="CF7" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="CG7" s="4" t="s">
+      <c r="CG7" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="CH7" s="6" t="s">
+      <c r="CH7" s="12" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -5114,11 +2837,11 @@
       <c r="CG8">
         <v>599183</v>
       </c>
-      <c r="CH8" s="7">
+      <c r="CH8" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5374,11 +3097,11 @@
       <c r="CG9">
         <v>95694</v>
       </c>
-      <c r="CH9" s="7">
+      <c r="CH9" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -5634,11 +3357,11 @@
       <c r="CG10">
         <v>360070</v>
       </c>
-      <c r="CH10" s="7">
+      <c r="CH10" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5894,11 +3617,11 @@
       <c r="CG11">
         <v>110710</v>
       </c>
-      <c r="CH11" s="7">
+      <c r="CH11" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:86">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -6154,11 +3877,11 @@
       <c r="CG12">
         <v>89478</v>
       </c>
-      <c r="CH12" s="7">
+      <c r="CH12" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -6414,11 +4137,11 @@
       <c r="CG13">
         <v>688205</v>
       </c>
-      <c r="CH13" s="7">
+      <c r="CH13" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:86">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6674,11 +4397,11 @@
       <c r="CG14">
         <v>1869487</v>
       </c>
-      <c r="CH14" s="7">
+      <c r="CH14" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:86">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6934,11 +4657,11 @@
       <c r="CG15">
         <v>194306</v>
       </c>
-      <c r="CH15" s="7">
+      <c r="CH15" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:86">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -7194,11 +4917,11 @@
       <c r="CG16">
         <v>239531</v>
       </c>
-      <c r="CH16" s="7">
+      <c r="CH16" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:86">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -7454,11 +5177,11 @@
       <c r="CG17">
         <v>324886</v>
       </c>
-      <c r="CH17" s="7">
+      <c r="CH17" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:86">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -7714,11 +5437,11 @@
       <c r="CG18">
         <v>546603</v>
       </c>
-      <c r="CH18" s="7">
+      <c r="CH18" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:86">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -7974,11 +5697,11 @@
       <c r="CG19">
         <v>735165</v>
       </c>
-      <c r="CH19" s="7">
+      <c r="CH19" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -8234,11 +5957,11 @@
       <c r="CG20">
         <v>914152</v>
       </c>
-      <c r="CH20" s="7">
+      <c r="CH20" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:86">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -8494,11 +6217,11 @@
       <c r="CG21">
         <v>378063</v>
       </c>
-      <c r="CH21" s="7">
+      <c r="CH21" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:86">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -8754,11 +6477,11 @@
       <c r="CG22">
         <v>1168679</v>
       </c>
-      <c r="CH22" s="7">
+      <c r="CH22" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:86">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -9014,11 +6737,11 @@
       <c r="CG23">
         <v>297115</v>
       </c>
-      <c r="CH23" s="7">
+      <c r="CH23" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:86">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -9274,11 +6997,11 @@
       <c r="CG24">
         <v>238117</v>
       </c>
-      <c r="CH24" s="7">
+      <c r="CH24" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:86">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -9534,11 +7257,11 @@
       <c r="CG25">
         <v>536261</v>
       </c>
-      <c r="CH25" s="7">
+      <c r="CH25" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:86">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -9794,11 +7517,11 @@
       <c r="CG26">
         <v>1680935</v>
       </c>
-      <c r="CH26" s="7">
+      <c r="CH26" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:86">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -10054,11 +7777,11 @@
       <c r="CG27">
         <v>192205</v>
       </c>
-      <c r="CH27" s="7">
+      <c r="CH27" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:86">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -10314,11 +8037,11 @@
       <c r="CG28">
         <v>382487</v>
       </c>
-      <c r="CH28" s="7">
+      <c r="CH28" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:86">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -10574,11 +8297,11 @@
       <c r="CG29">
         <v>270780</v>
       </c>
-      <c r="CH29" s="7">
+      <c r="CH29" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:86">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -10834,11 +8557,11 @@
       <c r="CG30">
         <v>87281</v>
       </c>
-      <c r="CH30" s="7">
+      <c r="CH30" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:86">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -11094,11 +8817,11 @@
       <c r="CG31">
         <v>689261</v>
       </c>
-      <c r="CH31" s="7">
+      <c r="CH31" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:86">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11354,11 +9077,11 @@
       <c r="CG32">
         <v>1578690</v>
       </c>
-      <c r="CH32" s="7">
+      <c r="CH32" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:86">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -11614,11 +9337,11 @@
       <c r="CG33">
         <v>412540</v>
       </c>
-      <c r="CH33" s="7">
+      <c r="CH33" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:86">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -11874,11 +9597,11 @@
       <c r="CG34">
         <v>98841</v>
       </c>
-      <c r="CH34" s="7">
+      <c r="CH34" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:86">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -12134,11 +9857,11 @@
       <c r="CG35">
         <v>0</v>
       </c>
-      <c r="CH35" s="7">
+      <c r="CH35" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:86">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -12394,11 +10117,11 @@
       <c r="CG36">
         <v>0</v>
       </c>
-      <c r="CH36" s="7">
+      <c r="CH36" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:86">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -12654,11 +10377,11 @@
       <c r="CG37">
         <v>0</v>
       </c>
-      <c r="CH37" s="7">
+      <c r="CH37" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:86">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -12914,11 +10637,11 @@
       <c r="CG38">
         <v>11440</v>
       </c>
-      <c r="CH38" s="7">
+      <c r="CH38" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:86">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -13174,11 +10897,11 @@
       <c r="CG39">
         <v>135217</v>
       </c>
-      <c r="CH39" s="7">
+      <c r="CH39" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:86">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -13434,11 +11157,11 @@
       <c r="CG40">
         <v>7006</v>
       </c>
-      <c r="CH40" s="7">
+      <c r="CH40" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:86">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -13694,11 +11417,11 @@
       <c r="CG41">
         <v>20133</v>
       </c>
-      <c r="CH41" s="7">
+      <c r="CH41" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:86">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -13954,11 +11677,11 @@
       <c r="CG42">
         <v>39328</v>
       </c>
-      <c r="CH42" s="7">
+      <c r="CH42" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:86">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -14214,11 +11937,11 @@
       <c r="CG43">
         <v>83112</v>
       </c>
-      <c r="CH43" s="7">
+      <c r="CH43" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:86">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -14474,11 +12197,11 @@
       <c r="CG44">
         <v>758</v>
       </c>
-      <c r="CH44" s="7">
+      <c r="CH44" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:86">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -14734,11 +12457,11 @@
       <c r="CG45">
         <v>282446</v>
       </c>
-      <c r="CH45" s="7">
+      <c r="CH45" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:86">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -14994,11 +12717,11 @@
       <c r="CG46">
         <v>159306</v>
       </c>
-      <c r="CH46" s="7">
+      <c r="CH46" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:86">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -15254,11 +12977,11 @@
       <c r="CG47">
         <v>486509</v>
       </c>
-      <c r="CH47" s="7">
+      <c r="CH47" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:86">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -15514,11 +13237,11 @@
       <c r="CG48">
         <v>147805</v>
       </c>
-      <c r="CH48" s="7">
+      <c r="CH48" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:86">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -15774,11 +13497,11 @@
       <c r="CG49">
         <v>745649</v>
       </c>
-      <c r="CH49" s="7">
+      <c r="CH49" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:86">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16034,11 +13757,11 @@
       <c r="CG50">
         <v>343305</v>
       </c>
-      <c r="CH50" s="7">
+      <c r="CH50" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:86">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -16294,11 +14017,11 @@
       <c r="CG51">
         <v>951104</v>
       </c>
-      <c r="CH51" s="7">
+      <c r="CH51" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:86">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -16554,11 +14277,11 @@
       <c r="CG52">
         <v>692094</v>
       </c>
-      <c r="CH52" s="7">
+      <c r="CH52" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:86">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -16814,11 +14537,11 @@
       <c r="CG53">
         <v>1414618</v>
       </c>
-      <c r="CH53" s="7">
+      <c r="CH53" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:86">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -17074,11 +14797,11 @@
       <c r="CG54">
         <v>193031</v>
       </c>
-      <c r="CH54" s="7">
+      <c r="CH54" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:86">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -17334,11 +15057,11 @@
       <c r="CG55">
         <v>2313760</v>
       </c>
-      <c r="CH55" s="7">
+      <c r="CH55" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:86">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -17594,11 +15317,11 @@
       <c r="CG56">
         <v>1402067</v>
       </c>
-      <c r="CH56" s="7">
+      <c r="CH56" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:86">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -17854,11 +15577,11 @@
       <c r="CG57">
         <v>483142</v>
       </c>
-      <c r="CH57" s="7">
+      <c r="CH57" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:86">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -18114,11 +15837,11 @@
       <c r="CG58">
         <v>376761</v>
       </c>
-      <c r="CH58" s="7">
+      <c r="CH58" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:86">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -18374,11 +16097,11 @@
       <c r="CG59">
         <v>613405</v>
       </c>
-      <c r="CH59" s="7">
+      <c r="CH59" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:86">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -18634,11 +16357,11 @@
       <c r="CG60">
         <v>2436816</v>
       </c>
-      <c r="CH60" s="7">
+      <c r="CH60" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:86">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -18894,11 +16617,11 @@
       <c r="CG61">
         <v>657761</v>
       </c>
-      <c r="CH61" s="7">
+      <c r="CH61" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:86">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -19154,11 +16877,11 @@
       <c r="CG62">
         <v>1036945</v>
       </c>
-      <c r="CH62" s="7">
+      <c r="CH62" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:86">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -19414,11 +17137,11 @@
       <c r="CG63">
         <v>129166</v>
       </c>
-      <c r="CH63" s="7">
+      <c r="CH63" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:86">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -19674,11 +17397,11 @@
       <c r="CG64">
         <v>406150</v>
       </c>
-      <c r="CH64" s="7">
+      <c r="CH64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:86">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -19934,11 +17657,11 @@
       <c r="CG65">
         <v>1131292</v>
       </c>
-      <c r="CH65" s="7">
+      <c r="CH65" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:86">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -20194,11 +17917,11 @@
       <c r="CG66">
         <v>1156783</v>
       </c>
-      <c r="CH66" s="7">
+      <c r="CH66" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:86">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -20454,11 +18177,11 @@
       <c r="CG67">
         <v>258789</v>
       </c>
-      <c r="CH67" s="7">
+      <c r="CH67" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:86">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -20714,11 +18437,11 @@
       <c r="CG68">
         <v>238688</v>
       </c>
-      <c r="CH68" s="7">
+      <c r="CH68" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:86">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -20974,11 +18697,11 @@
       <c r="CG69">
         <v>126675</v>
       </c>
-      <c r="CH69" s="7">
+      <c r="CH69" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:86">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -21234,11 +18957,11 @@
       <c r="CG70">
         <v>156006</v>
       </c>
-      <c r="CH70" s="7">
+      <c r="CH70" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:86">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -21494,11 +19217,11 @@
       <c r="CG71">
         <v>145130</v>
       </c>
-      <c r="CH71" s="7">
+      <c r="CH71" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:86">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -21754,11 +19477,11 @@
       <c r="CG72">
         <v>869400</v>
       </c>
-      <c r="CH72" s="7">
+      <c r="CH72" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:86">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -22014,11 +19737,11 @@
       <c r="CG73">
         <v>880271</v>
       </c>
-      <c r="CH73" s="7">
+      <c r="CH73" s="13">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:86">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -22274,11 +19997,11 @@
       <c r="CG74">
         <v>700477</v>
       </c>
-      <c r="CH74" s="7">
+      <c r="CH74" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:86">
+    <row r="75" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -22534,11 +20257,11 @@
       <c r="CG75">
         <v>460969</v>
       </c>
-      <c r="CH75" s="7">
+      <c r="CH75" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:86">
+    <row r="76" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22794,11 +20517,11 @@
       <c r="CG76">
         <v>71213</v>
       </c>
-      <c r="CH76" s="7">
+      <c r="CH76" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:86">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -23054,11 +20777,11 @@
       <c r="CG77">
         <v>1916544</v>
       </c>
-      <c r="CH77" s="7">
+      <c r="CH77" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:86">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -23314,11 +21037,11 @@
       <c r="CG78">
         <v>111092</v>
       </c>
-      <c r="CH78" s="7">
+      <c r="CH78" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:86">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -23574,11 +21297,11 @@
       <c r="CG79">
         <v>182129</v>
       </c>
-      <c r="CH79" s="7">
+      <c r="CH79" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:86">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -23834,15 +21557,15 @@
       <c r="CG80">
         <v>202563</v>
       </c>
-      <c r="CH80" s="7">
+      <c r="CH80" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85">
+    <row r="81" spans="1:85" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>226</v>
       </c>
-      <c r="B81" s="5" t="s">
+      <c r="B81" s="10" t="s">
         <v>227</v>
       </c>
       <c r="C81">
@@ -24108,7 +21831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27130C2E-0479-46E8-A0A0-BE00F4868B20}">
   <dimension ref="A1:K54"/>
   <sheetViews>
@@ -24116,130 +21839,130 @@
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="32.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
+      <c r="A1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="25" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="25" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="25"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="4" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="9" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
-      <c r="C7" s="4" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="9" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="9" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="10" t="s">
         <v>240</v>
       </c>
       <c r="C8">
@@ -24270,7 +21993,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -24305,7 +22028,7 @@
         <v>2368.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -24340,7 +22063,7 @@
         <v>671.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -24375,7 +22098,7 @@
         <v>629.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -24410,7 +22133,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -24445,23 +22168,23 @@
         <v>1541.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="16">
         <v>457</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="16">
         <v>419.3</v>
       </c>
-      <c r="E14" s="8">
+      <c r="E14" s="16">
         <v>457.2</v>
       </c>
-      <c r="F14" s="8">
+      <c r="F14" s="16">
         <v>462</v>
       </c>
       <c r="G14">
@@ -24480,7 +22203,7 @@
         <v>533.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -24515,7 +22238,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -24550,7 +22273,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -24585,7 +22308,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -24620,7 +22343,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -24655,7 +22378,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -24690,7 +22413,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -24725,7 +22448,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -24760,7 +22483,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -24795,7 +22518,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -24830,7 +22553,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -24865,7 +22588,7 @@
         <v>916.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -24900,7 +22623,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -24935,7 +22658,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -24970,7 +22693,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -25005,11 +22728,11 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="10" t="s">
         <v>281</v>
       </c>
       <c r="C30">
@@ -25040,7 +22763,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>282</v>
       </c>
@@ -25075,7 +22798,7 @@
         <v>2180.3000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -25110,7 +22833,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -25145,7 +22868,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -25180,7 +22903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -25215,7 +22938,7 @@
         <v>284.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -25250,7 +22973,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -25285,7 +23008,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -25320,11 +23043,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>297</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="10" t="s">
         <v>298</v>
       </c>
       <c r="C39">
@@ -25355,7 +23078,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -25390,7 +23113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>301</v>
       </c>
@@ -25425,7 +23148,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -25460,11 +23183,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>303</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C43">
@@ -25495,7 +23218,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -25530,7 +23253,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -25565,11 +23288,11 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="10" t="s">
         <v>309</v>
       </c>
       <c r="C46">
@@ -25600,7 +23323,7 @@
         <v>3532.3</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -25635,7 +23358,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -25670,7 +23393,7 @@
         <v>450.3</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -25705,7 +23428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -25740,7 +23463,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -25775,11 +23498,11 @@
         <v>350.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>318</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="10" t="s">
         <v>319</v>
       </c>
       <c r="C52">
@@ -25810,35 +23533,35 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="26" t="s">
+    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.4">
+      <c r="A53" s="14" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="23"/>
-      <c r="C53" s="23"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="23"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="23"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
     </row>
-    <row r="54" spans="1:11">
-      <c r="A54" s="27" t="s">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="23"/>
-      <c r="C54" s="23"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="23"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="23"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -25857,7 +23580,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25AABD1-0D09-4A7E-A29B-4F41AA94F3B1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -25865,13 +23588,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -25880,7 +23603,7 @@
         <v>1795500000000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -25889,11 +23612,11 @@
         <v>34904443000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="17">
         <f>B1/B2</f>
         <v>5.1440442696650393E-2</v>
       </c>
@@ -25903,325 +23626,323 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AQ2" sqref="B2:AQ2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.42578125" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.453125" customWidth="1"/>
+    <col min="2" max="2" width="26.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:43" ht="29" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="P1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="3" t="s">
+      <c r="Q1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="3" t="s">
+      <c r="R1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="3" t="s">
+      <c r="S1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="3" t="s">
+      <c r="T1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="U1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="W1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="3" t="s">
+      <c r="X1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="3" t="s">
+      <c r="Z1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="3" t="s">
+      <c r="AA1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="3" t="s">
+      <c r="AB1" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="3" t="s">
+      <c r="AC1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="3" t="s">
+      <c r="AD1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="3" t="s">
+      <c r="AE1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="3" t="s">
+      <c r="AF1" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="3" t="s">
+      <c r="AG1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="3" t="s">
+      <c r="AH1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AI1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="3" t="s">
+      <c r="AJ1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AK1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="3" t="s">
+      <c r="AM1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="3" t="s">
+      <c r="AN1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="3" t="s">
+      <c r="AO1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="3" t="s">
+      <c r="AP1" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="3" t="s">
+      <c r="AQ1" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="C2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="D2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="E2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="F2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="G2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="H2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="I2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="J2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="K2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="L2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="M2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="N2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="O2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="P2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="Q2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="R2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="S2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="T2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="U2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="V2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="W2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="X2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="Y2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="Z2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AA2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AB2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AC2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AD2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AE2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AF2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AG2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AH2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AI2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AJ2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AK2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AL2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AM2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AN2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AO2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AP2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
-      </c>
-      <c r="AQ2" s="11">
-        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
-        <v>7.7700000000000005E-2</v>
+      <c r="B2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="C2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="D2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="E2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="F2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="G2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="H2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="I2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="J2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="K2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="L2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="M2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="N2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="O2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="P2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="Q2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="R2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="S2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="T2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="U2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="V2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="W2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="X2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="Y2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="Z2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AA2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AB2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AC2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AD2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AE2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AF2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AG2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AH2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AI2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AJ2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AK2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AL2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AM2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="19">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AP2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
+      </c>
+      <c r="AQ2" s="19">
+        <f>'Average Tax Rate'!$B$4</f>
+        <v>5.1440442696650393E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
+++ b/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\io-model\VoSTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\io-model\VoSTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5738321E-CC4C-4416-807D-B27B4B320AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5739E860-5D5E-43E6-8170-BB9419002ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13560" yWindow="6780" windowWidth="15240" windowHeight="10545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
-    <sheet name="BEA Output" sheetId="3" r:id="rId2"/>
-    <sheet name="BEA Sales Tax Revenue" sheetId="4" r:id="rId3"/>
-    <sheet name="Average Tax Rate" sheetId="5" r:id="rId4"/>
-    <sheet name="VoSTR" sheetId="2" r:id="rId5"/>
+    <sheet name="State tax rate" sheetId="6" r:id="rId2"/>
+    <sheet name="BEA Output" sheetId="3" r:id="rId3"/>
+    <sheet name="BEA Sales Tax Revenue" sheetId="4" r:id="rId4"/>
+    <sheet name="Average Tax Rate" sheetId="5" r:id="rId5"/>
+    <sheet name="VoSTR" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5095" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5311" uniqueCount="490">
   <si>
     <t>Notes:</t>
   </si>
@@ -1038,6 +1039,474 @@
   </si>
   <si>
     <t>https://apps.bea.gov/iTable/iTable.cfm?reqid=19&amp;step=3&amp;isuri=1&amp;nipa_table_list=88&amp;categories=survey</t>
+  </si>
+  <si>
+    <t>West Virginia</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>AL</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>AZ</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>CT</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>FL</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>IN</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>LA</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>MD</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>MA</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>MI</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>MO</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>NV</t>
+  </si>
+  <si>
+    <t>New Hampshire</t>
+  </si>
+  <si>
+    <t>NH</t>
+  </si>
+  <si>
+    <t>New Jersey</t>
+  </si>
+  <si>
+    <t>NJ</t>
+  </si>
+  <si>
+    <t>New Mexico</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>North Carolina</t>
+  </si>
+  <si>
+    <t>NC</t>
+  </si>
+  <si>
+    <t>North Dakota</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>OH</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>OR</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>Rhode Island</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>South Carolina</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>South Dakota</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>UT</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>VA</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>WI</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>WY</t>
+  </si>
+  <si>
+    <t>State Tax Rate</t>
+  </si>
+  <si>
+    <t>Rank</t>
+  </si>
+  <si>
+    <t>Avg. Local Tax Rate (a)</t>
+  </si>
+  <si>
+    <t>Combined Rate</t>
+  </si>
+  <si>
+    <t>Max Local Tax Rate</t>
+  </si>
+  <si>
+    <t>Ala.</t>
+  </si>
+  <si>
+    <t>Ariz.</t>
+  </si>
+  <si>
+    <t>Ark.</t>
+  </si>
+  <si>
+    <t>Calif. (b)</t>
+  </si>
+  <si>
+    <t>Colo.</t>
+  </si>
+  <si>
+    <t>Conn.</t>
+  </si>
+  <si>
+    <t>Del.</t>
+  </si>
+  <si>
+    <t>D.C.</t>
+  </si>
+  <si>
+    <t>Fla.</t>
+  </si>
+  <si>
+    <t>Ga.</t>
+  </si>
+  <si>
+    <t>Hawaii (c)</t>
+  </si>
+  <si>
+    <t>Ill.</t>
+  </si>
+  <si>
+    <t>Ind.</t>
+  </si>
+  <si>
+    <t>Kans.</t>
+  </si>
+  <si>
+    <t>Ky.</t>
+  </si>
+  <si>
+    <t>La.</t>
+  </si>
+  <si>
+    <t>Md.</t>
+  </si>
+  <si>
+    <t>Mass.</t>
+  </si>
+  <si>
+    <t>Mich.</t>
+  </si>
+  <si>
+    <t>Minn.</t>
+  </si>
+  <si>
+    <t>Miss.</t>
+  </si>
+  <si>
+    <t>Mo.</t>
+  </si>
+  <si>
+    <t>Mont. (d)</t>
+  </si>
+  <si>
+    <t>Nebr.</t>
+  </si>
+  <si>
+    <t>Nev.</t>
+  </si>
+  <si>
+    <t>N.H.</t>
+  </si>
+  <si>
+    <t>N.J. (e)</t>
+  </si>
+  <si>
+    <t>N.M. (c)</t>
+  </si>
+  <si>
+    <t>N.Y.</t>
+  </si>
+  <si>
+    <t>N.C.</t>
+  </si>
+  <si>
+    <t>N.D.</t>
+  </si>
+  <si>
+    <t>Okla.</t>
+  </si>
+  <si>
+    <t>Ore.</t>
+  </si>
+  <si>
+    <t>Pa.</t>
+  </si>
+  <si>
+    <t>R.I.</t>
+  </si>
+  <si>
+    <t>S.C.</t>
+  </si>
+  <si>
+    <t>S.D. (c)</t>
+  </si>
+  <si>
+    <t>Tenn.</t>
+  </si>
+  <si>
+    <t>Tex.</t>
+  </si>
+  <si>
+    <t>Utah (b)</t>
+  </si>
+  <si>
+    <t>Vt.</t>
+  </si>
+  <si>
+    <t>Va. (b)</t>
+  </si>
+  <si>
+    <t>Wash.</t>
+  </si>
+  <si>
+    <t>W.Va. </t>
+  </si>
+  <si>
+    <t>Wis.</t>
+  </si>
+  <si>
+    <t>Wyo.</t>
+  </si>
+  <si>
+    <t>State &amp; Local Sales Tax Rates as of July 1, 2022</t>
+  </si>
+  <si>
+    <t>State and Local Sales Tax Rate</t>
+  </si>
+  <si>
+    <t>Tax Foundation</t>
+  </si>
+  <si>
+    <t>https://taxfoundation.org/2022-sales-tax-rates-midyear/</t>
   </si>
 </sst>
 </file>
@@ -1045,9 +1514,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1121,8 +1590,36 @@
       <sz val="10"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF403F41"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF403F41"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="17"/>
+      <color rgb="FF555555"/>
+      <name val="Lato"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1150,6 +1647,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1193,43 +1696,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1569,119 +2082,516 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="17"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="B1" s="15" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1" s="16">
+        <v>44827</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>335</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>335</v>
+      </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7">
+      <c r="B2" s="13" t="str">
+        <f>INDEX(F:F,MATCH(B1,E:E,0))</f>
+        <v>CO</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="E2" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="13" t="s">
+        <v>338</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
+    <row r="4" spans="1:7">
+      <c r="B4" s="14" t="s">
         <v>331</v>
       </c>
+      <c r="E4" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>341</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B5" s="2">
+    <row r="5" spans="1:7">
+      <c r="B5" s="14">
         <v>2022</v>
       </c>
+      <c r="E5" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>343</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
+    <row r="6" spans="1:7">
+      <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
+      <c r="E6" s="13" t="s">
+        <v>344</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>345</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="1:7">
+      <c r="B7" s="14" t="s">
         <v>332</v>
       </c>
+      <c r="E7" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>347</v>
+      </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B9" s="18" t="s">
+    <row r="8" spans="1:7">
+      <c r="E8" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="B9" s="10" t="s">
         <v>330</v>
       </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="13" t="s">
+        <v>350</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="2" t="s">
+    <row r="10" spans="1:7">
+      <c r="B10" s="14" t="s">
         <v>331</v>
       </c>
+      <c r="E10" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>353</v>
+      </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="2">
+    <row r="11" spans="1:7">
+      <c r="B11" s="14">
         <v>2022</v>
       </c>
+      <c r="E11" s="13" t="s">
+        <v>354</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>355</v>
+      </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="2" t="s">
+    <row r="12" spans="1:7">
+      <c r="B12" s="14" t="s">
         <v>228</v>
       </c>
+      <c r="E12" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>357</v>
+      </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:7">
+      <c r="B13" s="14" t="s">
         <v>333</v>
       </c>
+      <c r="E13" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>359</v>
+      </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:7">
+      <c r="B14" s="14"/>
+      <c r="E14" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>361</v>
+      </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:7">
+      <c r="B15" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>362</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="B16" s="14" t="s">
+        <v>488</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="B17" s="14">
+        <v>2022</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="B18" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="B19" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="E20" s="13" t="s">
+        <v>372</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="E21" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="E22" s="13" t="s">
+        <v>376</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="E23" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="E24" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="E25" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="2"/>
+      <c r="E26" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>385</v>
+      </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>46</v>
       </c>
+      <c r="E27" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>387</v>
+      </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+    <row r="28" spans="1:6">
+      <c r="E28" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>47</v>
       </c>
+      <c r="E29" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>391</v>
+      </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>48</v>
       </c>
+      <c r="E30" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>393</v>
+      </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
+    <row r="31" spans="1:6">
+      <c r="E31" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>326</v>
       </c>
+      <c r="E32" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>397</v>
+      </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
         <v>327</v>
       </c>
+      <c r="E33" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
         <v>328</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="E35" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="E36" s="13" t="s">
+        <v>404</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="E37" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="E38" s="13" t="s">
+        <v>408</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="E39" s="13" t="s">
+        <v>410</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="E40" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="E41" s="13" t="s">
+        <v>414</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="E42" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="E43" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="E44" s="13" t="s">
+        <v>420</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="E45" s="13" t="s">
+        <v>422</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="E46" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="E47" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="E48" s="13" t="s">
+        <v>428</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" s="13" t="s">
+        <v>431</v>
+      </c>
+      <c r="F50" s="13" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -1691,897 +2601,2264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4808E40E-62AC-4DD4-A7AE-69521F9CF108}">
+  <dimension ref="A1:H53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="21.75">
+      <c r="A1" s="19" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="B2" t="s">
+        <v>335</v>
+      </c>
+      <c r="C2" t="s">
+        <v>435</v>
+      </c>
+      <c r="D2" t="s">
+        <v>436</v>
+      </c>
+      <c r="E2" t="s">
+        <v>437</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>438</v>
+      </c>
+      <c r="G2" t="s">
+        <v>436</v>
+      </c>
+      <c r="H2" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="B3" t="s">
+        <v>440</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="D3">
+        <v>40</v>
+      </c>
+      <c r="E3" s="18">
+        <v>5.2400000000000002E-2</v>
+      </c>
+      <c r="F3" s="21">
+        <v>9.2399999999999996E-2</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>46</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="F4" s="21">
+        <v>1.7600000000000001E-2</v>
+      </c>
+      <c r="G4">
+        <v>46</v>
+      </c>
+      <c r="H4" s="18">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" t="s">
+        <v>441</v>
+      </c>
+      <c r="C5" s="18">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="D5">
+        <v>28</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2.7699999999999999E-2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>8.3699999999999997E-2</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5" s="18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B6" t="s">
+        <v>442</v>
+      </c>
+      <c r="C6" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D6">
+        <v>9</v>
+      </c>
+      <c r="E6" s="18">
+        <v>2.9700000000000001E-2</v>
+      </c>
+      <c r="F6" s="21">
+        <v>9.4700000000000006E-2</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6" s="18">
+        <v>6.1249999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B7" t="s">
+        <v>443</v>
+      </c>
+      <c r="C7" s="18">
+        <v>7.2499999999999995E-2</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1.5699999999999999E-2</v>
+      </c>
+      <c r="F7" s="21">
+        <v>8.8200000000000001E-2</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="13" t="s">
+        <v>347</v>
+      </c>
+      <c r="B8" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="18">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8" s="18">
+        <v>4.87E-2</v>
+      </c>
+      <c r="F8" s="21">
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="G8">
+        <v>15</v>
+      </c>
+      <c r="H8" s="18">
+        <v>8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="13" t="s">
+        <v>349</v>
+      </c>
+      <c r="B9" t="s">
+        <v>445</v>
+      </c>
+      <c r="C9" s="18">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="D9">
+        <v>12</v>
+      </c>
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="21">
+        <v>6.3500000000000001E-2</v>
+      </c>
+      <c r="G9">
+        <v>33</v>
+      </c>
+      <c r="H9" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C10" s="18">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>46</v>
+      </c>
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="21">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>47</v>
+      </c>
+      <c r="H10" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>447</v>
+      </c>
+      <c r="C11" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D11">
+        <v>-17</v>
+      </c>
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G11">
+        <v>-38</v>
+      </c>
+      <c r="H11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="13" t="s">
+        <v>353</v>
+      </c>
+      <c r="B12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C12" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1.01E-2</v>
+      </c>
+      <c r="F12" s="21">
+        <v>7.0099999999999996E-2</v>
+      </c>
+      <c r="G12">
+        <v>23</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="13" t="s">
+        <v>355</v>
+      </c>
+      <c r="B13" t="s">
+        <v>449</v>
+      </c>
+      <c r="C13" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" s="18">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="G13">
+        <v>19</v>
+      </c>
+      <c r="H13" s="18">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="B14" t="s">
+        <v>450</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14" s="18">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="F14" s="21">
+        <v>4.4400000000000002E-2</v>
+      </c>
+      <c r="G14">
+        <v>45</v>
+      </c>
+      <c r="H14" s="18">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="B15" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15" s="18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+      <c r="F15" s="21">
+        <v>6.0199999999999997E-2</v>
+      </c>
+      <c r="G15">
+        <v>37</v>
+      </c>
+      <c r="H15" s="18">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="B16" t="s">
+        <v>451</v>
+      </c>
+      <c r="C16" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D16">
+        <v>13</v>
+      </c>
+      <c r="E16" s="18">
+        <v>2.4799999999999999E-2</v>
+      </c>
+      <c r="F16" s="21">
+        <v>8.7300000000000003E-2</v>
+      </c>
+      <c r="G16">
+        <v>8</v>
+      </c>
+      <c r="H16" s="18">
+        <v>5.2499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" t="s">
+        <v>452</v>
+      </c>
+      <c r="C17" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0</v>
+      </c>
+      <c r="F17" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G17">
+        <v>24</v>
+      </c>
+      <c r="H17" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="13" t="s">
+        <v>365</v>
+      </c>
+      <c r="B18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" s="18">
+        <v>9.4000000000000004E-3</v>
+      </c>
+      <c r="F18" s="21">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="G18">
+        <v>28</v>
+      </c>
+      <c r="H18" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" t="s">
+        <v>453</v>
+      </c>
+      <c r="C19" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+      <c r="E19" s="18">
+        <v>2.2100000000000002E-2</v>
+      </c>
+      <c r="F19" s="21">
+        <v>8.7099999999999997E-2</v>
+      </c>
+      <c r="G19">
+        <v>9</v>
+      </c>
+      <c r="H19" s="18">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="13" t="s">
+        <v>369</v>
+      </c>
+      <c r="B20" t="s">
+        <v>454</v>
+      </c>
+      <c r="C20" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0</v>
+      </c>
+      <c r="F20" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G20">
+        <v>38</v>
+      </c>
+      <c r="H20" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="13" t="s">
+        <v>371</v>
+      </c>
+      <c r="B21" t="s">
+        <v>455</v>
+      </c>
+      <c r="C21" s="18">
+        <v>4.4499999999999998E-2</v>
+      </c>
+      <c r="D21">
+        <v>38</v>
+      </c>
+      <c r="E21" s="18">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="F21" s="21">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="B22" t="s">
+        <v>372</v>
+      </c>
+      <c r="C22" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D22">
+        <v>29</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0</v>
+      </c>
+      <c r="F22" s="21">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G22">
+        <v>42</v>
+      </c>
+      <c r="H22" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="13" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" t="s">
+        <v>456</v>
+      </c>
+      <c r="C23" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D23">
+        <v>17</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G23">
+        <v>38</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="B24" t="s">
+        <v>457</v>
+      </c>
+      <c r="C24" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D24">
+        <v>13</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0</v>
+      </c>
+      <c r="F24" s="21">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G24">
+        <v>35</v>
+      </c>
+      <c r="H24" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="B25" t="s">
+        <v>458</v>
+      </c>
+      <c r="C25" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D25">
+        <v>17</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0</v>
+      </c>
+      <c r="F25" s="21">
+        <v>0.06</v>
+      </c>
+      <c r="G25">
+        <v>38</v>
+      </c>
+      <c r="H25" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="13" t="s">
+        <v>381</v>
+      </c>
+      <c r="B26" t="s">
+        <v>459</v>
+      </c>
+      <c r="C26" s="18">
+        <v>6.8750000000000006E-2</v>
+      </c>
+      <c r="D26">
+        <v>6</v>
+      </c>
+      <c r="E26" s="18">
+        <v>6.1000000000000004E-3</v>
+      </c>
+      <c r="F26" s="21">
+        <v>7.4899999999999994E-2</v>
+      </c>
+      <c r="G26">
+        <v>17</v>
+      </c>
+      <c r="H26" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s">
+        <v>460</v>
+      </c>
+      <c r="C27" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" s="18">
+        <v>6.9999999999999999E-4</v>
+      </c>
+      <c r="F27" s="21">
+        <v>7.0699999999999999E-2</v>
+      </c>
+      <c r="G27">
+        <v>22</v>
+      </c>
+      <c r="H27" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="B28" t="s">
+        <v>461</v>
+      </c>
+      <c r="C28" s="18">
+        <v>4.2250000000000003E-2</v>
+      </c>
+      <c r="D28">
+        <v>39</v>
+      </c>
+      <c r="E28" s="18">
+        <v>4.07E-2</v>
+      </c>
+      <c r="F28" s="21">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="G28">
+        <v>12</v>
+      </c>
+      <c r="H28" s="18">
+        <v>5.7630000000000001E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="13" t="s">
+        <v>387</v>
+      </c>
+      <c r="B29" t="s">
+        <v>462</v>
+      </c>
+      <c r="C29" s="18">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>46</v>
+      </c>
+      <c r="E29" s="18">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>47</v>
+      </c>
+      <c r="H29" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="B30" t="s">
+        <v>463</v>
+      </c>
+      <c r="C30" s="18">
+        <v>5.5E-2</v>
+      </c>
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F30" s="21">
+        <v>6.9400000000000003E-2</v>
+      </c>
+      <c r="G30">
+        <v>29</v>
+      </c>
+      <c r="H30" s="18">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="13" t="s">
+        <v>391</v>
+      </c>
+      <c r="B31" t="s">
+        <v>464</v>
+      </c>
+      <c r="C31" s="18">
+        <v>6.8500000000000005E-2</v>
+      </c>
+      <c r="D31">
+        <v>7</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1.38E-2</v>
+      </c>
+      <c r="F31" s="21">
+        <v>8.2299999999999998E-2</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31" s="18">
+        <v>1.5299999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" t="s">
+        <v>465</v>
+      </c>
+      <c r="C32" s="18">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>46</v>
+      </c>
+      <c r="E32" s="18">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>47</v>
+      </c>
+      <c r="H32" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="B33" t="s">
+        <v>466</v>
+      </c>
+      <c r="C33" s="18">
+        <v>6.6250000000000003E-2</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="18">
+        <v>-2.9999999999999997E-4</v>
+      </c>
+      <c r="F33" s="21">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="G33">
+        <v>30</v>
+      </c>
+      <c r="H33" s="18">
+        <v>3.313E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="B34" t="s">
+        <v>467</v>
+      </c>
+      <c r="C34" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="D34">
+        <v>32</v>
+      </c>
+      <c r="E34" s="18">
+        <v>2.7199999999999998E-2</v>
+      </c>
+      <c r="F34" s="21">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+      <c r="H34" s="18">
+        <v>4.3130000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="13" t="s">
+        <v>399</v>
+      </c>
+      <c r="B35" t="s">
+        <v>468</v>
+      </c>
+      <c r="C35" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="D35">
+        <v>40</v>
+      </c>
+      <c r="E35" s="18">
+        <v>4.5199999999999997E-2</v>
+      </c>
+      <c r="F35" s="21">
+        <v>8.5199999999999998E-2</v>
+      </c>
+      <c r="G35">
+        <v>10</v>
+      </c>
+      <c r="H35" s="18">
+        <v>4.8750000000000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="B36" t="s">
+        <v>469</v>
+      </c>
+      <c r="C36" s="18">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="D36">
+        <v>35</v>
+      </c>
+      <c r="E36" s="18">
+        <v>2.23E-2</v>
+      </c>
+      <c r="F36" s="21">
+        <v>6.9800000000000001E-2</v>
+      </c>
+      <c r="G36">
+        <v>26</v>
+      </c>
+      <c r="H36" s="18">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="B37" t="s">
+        <v>470</v>
+      </c>
+      <c r="C37" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="D37">
+        <v>32</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="F37" s="21">
+        <v>6.9599999999999995E-2</v>
+      </c>
+      <c r="G37">
+        <v>27</v>
+      </c>
+      <c r="H37" s="18">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="B38" t="s">
+        <v>404</v>
+      </c>
+      <c r="C38" s="18">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="D38">
+        <v>27</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1.49E-2</v>
+      </c>
+      <c r="F38" s="21">
+        <v>7.2400000000000006E-2</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38" s="18">
+        <v>2.2499999999999999E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B39" t="s">
+        <v>471</v>
+      </c>
+      <c r="C39" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D39">
+        <v>36</v>
+      </c>
+      <c r="E39" s="18">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="F39" s="21">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="G39">
+        <v>6</v>
+      </c>
+      <c r="H39" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="13" t="s">
+        <v>409</v>
+      </c>
+      <c r="B40" t="s">
+        <v>472</v>
+      </c>
+      <c r="C40" s="18">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>46</v>
+      </c>
+      <c r="E40" s="18">
+        <v>0</v>
+      </c>
+      <c r="F40" s="21">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>47</v>
+      </c>
+      <c r="H40" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="B41" t="s">
+        <v>473</v>
+      </c>
+      <c r="C41" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D41">
+        <v>17</v>
+      </c>
+      <c r="E41" s="18">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="F41" s="21">
+        <v>6.3399999999999998E-2</v>
+      </c>
+      <c r="G41">
+        <v>34</v>
+      </c>
+      <c r="H41" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="13" t="s">
+        <v>413</v>
+      </c>
+      <c r="B42" t="s">
+        <v>474</v>
+      </c>
+      <c r="C42" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="18">
+        <v>0</v>
+      </c>
+      <c r="F42" s="21">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G42">
+        <v>24</v>
+      </c>
+      <c r="H42" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="13" t="s">
+        <v>415</v>
+      </c>
+      <c r="B43" t="s">
+        <v>475</v>
+      </c>
+      <c r="C43" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D43">
+        <v>17</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1.44E-2</v>
+      </c>
+      <c r="F43" s="21">
+        <v>7.4399999999999994E-2</v>
+      </c>
+      <c r="G43">
+        <v>18</v>
+      </c>
+      <c r="H43" s="18">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="B44" t="s">
+        <v>476</v>
+      </c>
+      <c r="C44" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D44">
+        <v>36</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1.9E-2</v>
+      </c>
+      <c r="F44" s="21">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="G44">
+        <v>32</v>
+      </c>
+      <c r="H44" s="18">
+        <v>4.4999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="B45" t="s">
+        <v>477</v>
+      </c>
+      <c r="C45" s="18">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" s="18">
+        <v>2.5499999999999998E-2</v>
+      </c>
+      <c r="F45" s="21">
+        <v>9.5500000000000002E-2</v>
+      </c>
+      <c r="G45">
+        <v>2</v>
+      </c>
+      <c r="H45" s="18">
+        <v>2.75E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="13" t="s">
+        <v>421</v>
+      </c>
+      <c r="B46" t="s">
+        <v>478</v>
+      </c>
+      <c r="C46" s="18">
+        <v>6.25E-2</v>
+      </c>
+      <c r="D46">
+        <v>13</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1.95E-2</v>
+      </c>
+      <c r="F46" s="21">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="G46">
+        <v>14</v>
+      </c>
+      <c r="H46" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="B47" t="s">
+        <v>479</v>
+      </c>
+      <c r="C47" s="18">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="D47">
+        <v>16</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1.09E-2</v>
+      </c>
+      <c r="F47" s="21">
+        <v>7.1900000000000006E-2</v>
+      </c>
+      <c r="G47">
+        <v>21</v>
+      </c>
+      <c r="H47" s="18">
+        <v>2.9499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="13" t="s">
+        <v>425</v>
+      </c>
+      <c r="B48" t="s">
+        <v>480</v>
+      </c>
+      <c r="C48" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48" s="18">
+        <v>2.3999999999999998E-3</v>
+      </c>
+      <c r="F48" s="21">
+        <v>6.2399999999999997E-2</v>
+      </c>
+      <c r="G48">
+        <v>36</v>
+      </c>
+      <c r="H48" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B49" t="s">
+        <v>481</v>
+      </c>
+      <c r="C49" s="18">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="D49">
+        <v>31</v>
+      </c>
+      <c r="E49" s="18">
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="F49" s="21">
+        <v>5.7500000000000002E-2</v>
+      </c>
+      <c r="G49">
+        <v>41</v>
+      </c>
+      <c r="H49" s="18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="B50" t="s">
+        <v>482</v>
+      </c>
+      <c r="C50" s="18">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="D50">
+        <v>9</v>
+      </c>
+      <c r="E50" s="18">
+        <v>2.7900000000000001E-2</v>
+      </c>
+      <c r="F50" s="21">
+        <v>9.2899999999999996E-2</v>
+      </c>
+      <c r="G50">
+        <v>4</v>
+      </c>
+      <c r="H50" s="18">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="B51" t="s">
+        <v>483</v>
+      </c>
+      <c r="C51" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="D51">
+        <v>17</v>
+      </c>
+      <c r="E51" s="18">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="F51" s="21">
+        <v>6.5500000000000003E-2</v>
+      </c>
+      <c r="G51">
+        <v>31</v>
+      </c>
+      <c r="H51" s="18">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52" s="13" t="s">
+        <v>432</v>
+      </c>
+      <c r="B52" t="s">
+        <v>484</v>
+      </c>
+      <c r="C52" s="18">
+        <v>0.05</v>
+      </c>
+      <c r="D52">
+        <v>32</v>
+      </c>
+      <c r="E52" s="18">
+        <v>4.3E-3</v>
+      </c>
+      <c r="F52" s="21">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="G52">
+        <v>43</v>
+      </c>
+      <c r="H52" s="18">
+        <v>1.7500000000000002E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
+      <c r="A53" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="B53" t="s">
+        <v>485</v>
+      </c>
+      <c r="C53" s="18">
+        <v>0.04</v>
+      </c>
+      <c r="D53">
+        <v>40</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1.3599999999999999E-2</v>
+      </c>
+      <c r="F53" s="21">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="G53">
+        <v>44</v>
+      </c>
+      <c r="H53" s="18">
+        <v>0.02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BFE65BF-AB38-4432-8FBE-6BE791426801}">
   <dimension ref="A1:CH81"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="CG53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="CG8" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A7" sqref="A7"/>
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="CJ81" sqref="CJ81"/>
+      <selection pane="bottomRight" activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="36.26953125" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="84" width="0" hidden="1" customWidth="1"/>
-    <col min="85" max="85" width="23.453125" customWidth="1"/>
-    <col min="86" max="86" width="30.81640625" customWidth="1"/>
+    <col min="85" max="85" width="23.42578125" customWidth="1"/>
+    <col min="86" max="86" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:86" ht="18">
+      <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
-      <c r="AB1" s="6"/>
-      <c r="AC1" s="6"/>
-      <c r="AD1" s="6"/>
-      <c r="AE1" s="6"/>
-      <c r="AF1" s="6"/>
-      <c r="AG1" s="6"/>
-      <c r="AH1" s="6"/>
-      <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
-      <c r="AK1" s="6"/>
-      <c r="AL1" s="6"/>
-      <c r="AM1" s="6"/>
-      <c r="AN1" s="6"/>
-      <c r="AO1" s="6"/>
-      <c r="AP1" s="6"/>
-      <c r="AQ1" s="6"/>
-      <c r="AR1" s="6"/>
-      <c r="AS1" s="6"/>
-      <c r="AT1" s="6"/>
-      <c r="AU1" s="6"/>
-      <c r="AV1" s="6"/>
-      <c r="AW1" s="6"/>
-      <c r="AX1" s="6"/>
-      <c r="AY1" s="6"/>
-      <c r="AZ1" s="6"/>
-      <c r="BA1" s="6"/>
-      <c r="BB1" s="6"/>
-      <c r="BC1" s="6"/>
-      <c r="BD1" s="6"/>
-      <c r="BE1" s="6"/>
-      <c r="BF1" s="6"/>
-      <c r="BG1" s="6"/>
-      <c r="BH1" s="6"/>
-      <c r="BI1" s="6"/>
-      <c r="BJ1" s="6"/>
-      <c r="BK1" s="6"/>
-      <c r="BL1" s="6"/>
-      <c r="BM1" s="6"/>
-      <c r="BN1" s="6"/>
-      <c r="BO1" s="6"/>
-      <c r="BP1" s="6"/>
-      <c r="BQ1" s="6"/>
-      <c r="BR1" s="6"/>
-      <c r="BS1" s="6"/>
-      <c r="BT1" s="6"/>
-      <c r="BU1" s="6"/>
-      <c r="BV1" s="6"/>
-      <c r="BW1" s="6"/>
-      <c r="BX1" s="6"/>
-      <c r="BY1" s="6"/>
-      <c r="BZ1" s="6"/>
-      <c r="CA1" s="6"/>
-      <c r="CB1" s="6"/>
-      <c r="CC1" s="6"/>
-      <c r="CD1" s="6"/>
-      <c r="CE1" s="6"/>
-      <c r="CF1" s="6"/>
-      <c r="CG1" s="6"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="23"/>
+      <c r="AI1" s="23"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="23"/>
+      <c r="AL1" s="23"/>
+      <c r="AM1" s="23"/>
+      <c r="AN1" s="23"/>
+      <c r="AO1" s="23"/>
+      <c r="AP1" s="23"/>
+      <c r="AQ1" s="23"/>
+      <c r="AR1" s="23"/>
+      <c r="AS1" s="23"/>
+      <c r="AT1" s="23"/>
+      <c r="AU1" s="23"/>
+      <c r="AV1" s="23"/>
+      <c r="AW1" s="23"/>
+      <c r="AX1" s="23"/>
+      <c r="AY1" s="23"/>
+      <c r="AZ1" s="23"/>
+      <c r="BA1" s="23"/>
+      <c r="BB1" s="23"/>
+      <c r="BC1" s="23"/>
+      <c r="BD1" s="23"/>
+      <c r="BE1" s="23"/>
+      <c r="BF1" s="23"/>
+      <c r="BG1" s="23"/>
+      <c r="BH1" s="23"/>
+      <c r="BI1" s="23"/>
+      <c r="BJ1" s="23"/>
+      <c r="BK1" s="23"/>
+      <c r="BL1" s="23"/>
+      <c r="BM1" s="23"/>
+      <c r="BN1" s="23"/>
+      <c r="BO1" s="23"/>
+      <c r="BP1" s="23"/>
+      <c r="BQ1" s="23"/>
+      <c r="BR1" s="23"/>
+      <c r="BS1" s="23"/>
+      <c r="BT1" s="23"/>
+      <c r="BU1" s="23"/>
+      <c r="BV1" s="23"/>
+      <c r="BW1" s="23"/>
+      <c r="BX1" s="23"/>
+      <c r="BY1" s="23"/>
+      <c r="BZ1" s="23"/>
+      <c r="CA1" s="23"/>
+      <c r="CB1" s="23"/>
+      <c r="CC1" s="23"/>
+      <c r="CD1" s="23"/>
+      <c r="CE1" s="23"/>
+      <c r="CF1" s="23"/>
+      <c r="CG1" s="23"/>
     </row>
-    <row r="2" spans="1:86" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:86" ht="16.5">
+      <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="6"/>
-      <c r="AM2" s="6"/>
-      <c r="AN2" s="6"/>
-      <c r="AO2" s="6"/>
-      <c r="AP2" s="6"/>
-      <c r="AQ2" s="6"/>
-      <c r="AR2" s="6"/>
-      <c r="AS2" s="6"/>
-      <c r="AT2" s="6"/>
-      <c r="AU2" s="6"/>
-      <c r="AV2" s="6"/>
-      <c r="AW2" s="6"/>
-      <c r="AX2" s="6"/>
-      <c r="AY2" s="6"/>
-      <c r="AZ2" s="6"/>
-      <c r="BA2" s="6"/>
-      <c r="BB2" s="6"/>
-      <c r="BC2" s="6"/>
-      <c r="BD2" s="6"/>
-      <c r="BE2" s="6"/>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="6"/>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="6"/>
-      <c r="BJ2" s="6"/>
-      <c r="BK2" s="6"/>
-      <c r="BL2" s="6"/>
-      <c r="BM2" s="6"/>
-      <c r="BN2" s="6"/>
-      <c r="BO2" s="6"/>
-      <c r="BP2" s="6"/>
-      <c r="BQ2" s="6"/>
-      <c r="BR2" s="6"/>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="6"/>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="6"/>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="6"/>
-      <c r="BY2" s="6"/>
-      <c r="BZ2" s="6"/>
-      <c r="CA2" s="6"/>
-      <c r="CB2" s="6"/>
-      <c r="CC2" s="6"/>
-      <c r="CD2" s="6"/>
-      <c r="CE2" s="6"/>
-      <c r="CF2" s="6"/>
-      <c r="CG2" s="6"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
+      <c r="AH2" s="23"/>
+      <c r="AI2" s="23"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="23"/>
+      <c r="AL2" s="23"/>
+      <c r="AM2" s="23"/>
+      <c r="AN2" s="23"/>
+      <c r="AO2" s="23"/>
+      <c r="AP2" s="23"/>
+      <c r="AQ2" s="23"/>
+      <c r="AR2" s="23"/>
+      <c r="AS2" s="23"/>
+      <c r="AT2" s="23"/>
+      <c r="AU2" s="23"/>
+      <c r="AV2" s="23"/>
+      <c r="AW2" s="23"/>
+      <c r="AX2" s="23"/>
+      <c r="AY2" s="23"/>
+      <c r="AZ2" s="23"/>
+      <c r="BA2" s="23"/>
+      <c r="BB2" s="23"/>
+      <c r="BC2" s="23"/>
+      <c r="BD2" s="23"/>
+      <c r="BE2" s="23"/>
+      <c r="BF2" s="23"/>
+      <c r="BG2" s="23"/>
+      <c r="BH2" s="23"/>
+      <c r="BI2" s="23"/>
+      <c r="BJ2" s="23"/>
+      <c r="BK2" s="23"/>
+      <c r="BL2" s="23"/>
+      <c r="BM2" s="23"/>
+      <c r="BN2" s="23"/>
+      <c r="BO2" s="23"/>
+      <c r="BP2" s="23"/>
+      <c r="BQ2" s="23"/>
+      <c r="BR2" s="23"/>
+      <c r="BS2" s="23"/>
+      <c r="BT2" s="23"/>
+      <c r="BU2" s="23"/>
+      <c r="BV2" s="23"/>
+      <c r="BW2" s="23"/>
+      <c r="BX2" s="23"/>
+      <c r="BY2" s="23"/>
+      <c r="BZ2" s="23"/>
+      <c r="CA2" s="23"/>
+      <c r="CB2" s="23"/>
+      <c r="CC2" s="23"/>
+      <c r="CD2" s="23"/>
+      <c r="CE2" s="23"/>
+      <c r="CF2" s="23"/>
+      <c r="CG2" s="23"/>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:86">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="6"/>
-      <c r="AM3" s="6"/>
-      <c r="AN3" s="6"/>
-      <c r="AO3" s="6"/>
-      <c r="AP3" s="6"/>
-      <c r="AQ3" s="6"/>
-      <c r="AR3" s="6"/>
-      <c r="AS3" s="6"/>
-      <c r="AT3" s="6"/>
-      <c r="AU3" s="6"/>
-      <c r="AV3" s="6"/>
-      <c r="AW3" s="6"/>
-      <c r="AX3" s="6"/>
-      <c r="AY3" s="6"/>
-      <c r="AZ3" s="6"/>
-      <c r="BA3" s="6"/>
-      <c r="BB3" s="6"/>
-      <c r="BC3" s="6"/>
-      <c r="BD3" s="6"/>
-      <c r="BE3" s="6"/>
-      <c r="BF3" s="6"/>
-      <c r="BG3" s="6"/>
-      <c r="BH3" s="6"/>
-      <c r="BI3" s="6"/>
-      <c r="BJ3" s="6"/>
-      <c r="BK3" s="6"/>
-      <c r="BL3" s="6"/>
-      <c r="BM3" s="6"/>
-      <c r="BN3" s="6"/>
-      <c r="BO3" s="6"/>
-      <c r="BP3" s="6"/>
-      <c r="BQ3" s="6"/>
-      <c r="BR3" s="6"/>
-      <c r="BS3" s="6"/>
-      <c r="BT3" s="6"/>
-      <c r="BU3" s="6"/>
-      <c r="BV3" s="6"/>
-      <c r="BW3" s="6"/>
-      <c r="BX3" s="6"/>
-      <c r="BY3" s="6"/>
-      <c r="BZ3" s="6"/>
-      <c r="CA3" s="6"/>
-      <c r="CB3" s="6"/>
-      <c r="CC3" s="6"/>
-      <c r="CD3" s="6"/>
-      <c r="CE3" s="6"/>
-      <c r="CF3" s="6"/>
-      <c r="CG3" s="6"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
+      <c r="AH3" s="23"/>
+      <c r="AI3" s="23"/>
+      <c r="AJ3" s="23"/>
+      <c r="AK3" s="23"/>
+      <c r="AL3" s="23"/>
+      <c r="AM3" s="23"/>
+      <c r="AN3" s="23"/>
+      <c r="AO3" s="23"/>
+      <c r="AP3" s="23"/>
+      <c r="AQ3" s="23"/>
+      <c r="AR3" s="23"/>
+      <c r="AS3" s="23"/>
+      <c r="AT3" s="23"/>
+      <c r="AU3" s="23"/>
+      <c r="AV3" s="23"/>
+      <c r="AW3" s="23"/>
+      <c r="AX3" s="23"/>
+      <c r="AY3" s="23"/>
+      <c r="AZ3" s="23"/>
+      <c r="BA3" s="23"/>
+      <c r="BB3" s="23"/>
+      <c r="BC3" s="23"/>
+      <c r="BD3" s="23"/>
+      <c r="BE3" s="23"/>
+      <c r="BF3" s="23"/>
+      <c r="BG3" s="23"/>
+      <c r="BH3" s="23"/>
+      <c r="BI3" s="23"/>
+      <c r="BJ3" s="23"/>
+      <c r="BK3" s="23"/>
+      <c r="BL3" s="23"/>
+      <c r="BM3" s="23"/>
+      <c r="BN3" s="23"/>
+      <c r="BO3" s="23"/>
+      <c r="BP3" s="23"/>
+      <c r="BQ3" s="23"/>
+      <c r="BR3" s="23"/>
+      <c r="BS3" s="23"/>
+      <c r="BT3" s="23"/>
+      <c r="BU3" s="23"/>
+      <c r="BV3" s="23"/>
+      <c r="BW3" s="23"/>
+      <c r="BX3" s="23"/>
+      <c r="BY3" s="23"/>
+      <c r="BZ3" s="23"/>
+      <c r="CA3" s="23"/>
+      <c r="CB3" s="23"/>
+      <c r="CC3" s="23"/>
+      <c r="CD3" s="23"/>
+      <c r="CE3" s="23"/>
+      <c r="CF3" s="23"/>
+      <c r="CG3" s="23"/>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:86">
+      <c r="A4" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
-      <c r="AK4" s="6"/>
-      <c r="AL4" s="6"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="6"/>
-      <c r="AO4" s="6"/>
-      <c r="AP4" s="6"/>
-      <c r="AQ4" s="6"/>
-      <c r="AR4" s="6"/>
-      <c r="AS4" s="6"/>
-      <c r="AT4" s="6"/>
-      <c r="AU4" s="6"/>
-      <c r="AV4" s="6"/>
-      <c r="AW4" s="6"/>
-      <c r="AX4" s="6"/>
-      <c r="AY4" s="6"/>
-      <c r="AZ4" s="6"/>
-      <c r="BA4" s="6"/>
-      <c r="BB4" s="6"/>
-      <c r="BC4" s="6"/>
-      <c r="BD4" s="6"/>
-      <c r="BE4" s="6"/>
-      <c r="BF4" s="6"/>
-      <c r="BG4" s="6"/>
-      <c r="BH4" s="6"/>
-      <c r="BI4" s="6"/>
-      <c r="BJ4" s="6"/>
-      <c r="BK4" s="6"/>
-      <c r="BL4" s="6"/>
-      <c r="BM4" s="6"/>
-      <c r="BN4" s="6"/>
-      <c r="BO4" s="6"/>
-      <c r="BP4" s="6"/>
-      <c r="BQ4" s="6"/>
-      <c r="BR4" s="6"/>
-      <c r="BS4" s="6"/>
-      <c r="BT4" s="6"/>
-      <c r="BU4" s="6"/>
-      <c r="BV4" s="6"/>
-      <c r="BW4" s="6"/>
-      <c r="BX4" s="6"/>
-      <c r="BY4" s="6"/>
-      <c r="BZ4" s="6"/>
-      <c r="CA4" s="6"/>
-      <c r="CB4" s="6"/>
-      <c r="CC4" s="6"/>
-      <c r="CD4" s="6"/>
-      <c r="CE4" s="6"/>
-      <c r="CF4" s="6"/>
-      <c r="CG4" s="6"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
+      <c r="AH4" s="23"/>
+      <c r="AI4" s="23"/>
+      <c r="AJ4" s="23"/>
+      <c r="AK4" s="23"/>
+      <c r="AL4" s="23"/>
+      <c r="AM4" s="23"/>
+      <c r="AN4" s="23"/>
+      <c r="AO4" s="23"/>
+      <c r="AP4" s="23"/>
+      <c r="AQ4" s="23"/>
+      <c r="AR4" s="23"/>
+      <c r="AS4" s="23"/>
+      <c r="AT4" s="23"/>
+      <c r="AU4" s="23"/>
+      <c r="AV4" s="23"/>
+      <c r="AW4" s="23"/>
+      <c r="AX4" s="23"/>
+      <c r="AY4" s="23"/>
+      <c r="AZ4" s="23"/>
+      <c r="BA4" s="23"/>
+      <c r="BB4" s="23"/>
+      <c r="BC4" s="23"/>
+      <c r="BD4" s="23"/>
+      <c r="BE4" s="23"/>
+      <c r="BF4" s="23"/>
+      <c r="BG4" s="23"/>
+      <c r="BH4" s="23"/>
+      <c r="BI4" s="23"/>
+      <c r="BJ4" s="23"/>
+      <c r="BK4" s="23"/>
+      <c r="BL4" s="23"/>
+      <c r="BM4" s="23"/>
+      <c r="BN4" s="23"/>
+      <c r="BO4" s="23"/>
+      <c r="BP4" s="23"/>
+      <c r="BQ4" s="23"/>
+      <c r="BR4" s="23"/>
+      <c r="BS4" s="23"/>
+      <c r="BT4" s="23"/>
+      <c r="BU4" s="23"/>
+      <c r="BV4" s="23"/>
+      <c r="BW4" s="23"/>
+      <c r="BX4" s="23"/>
+      <c r="BY4" s="23"/>
+      <c r="BZ4" s="23"/>
+      <c r="CA4" s="23"/>
+      <c r="CB4" s="23"/>
+      <c r="CC4" s="23"/>
+      <c r="CD4" s="23"/>
+      <c r="CE4" s="23"/>
+      <c r="CF4" s="23"/>
+      <c r="CG4" s="23"/>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:86">
+      <c r="A6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="9" t="s">
+      <c r="O6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="9" t="s">
+      <c r="Q6" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="9" t="s">
+      <c r="R6" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="T6" s="9" t="s">
+      <c r="T6" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="V6" s="9" t="s">
+      <c r="V6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="W6" s="9" t="s">
+      <c r="W6" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="X6" s="9" t="s">
+      <c r="X6" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="Y6" s="9" t="s">
+      <c r="Y6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="Z6" s="9" t="s">
+      <c r="Z6" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="AA6" s="9" t="s">
+      <c r="AA6" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="AB6" s="9" t="s">
+      <c r="AB6" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="AC6" s="9" t="s">
+      <c r="AC6" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="AD6" s="9" t="s">
+      <c r="AD6" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AE6" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AF6" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="AG6" s="9" t="s">
+      <c r="AG6" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AH6" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AI6" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AJ6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AK6" s="9" t="s">
+      <c r="AK6" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="AL6" s="9" t="s">
+      <c r="AL6" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="AM6" s="9" t="s">
+      <c r="AM6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="AN6" s="9" t="s">
+      <c r="AN6" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="AO6" s="9" t="s">
+      <c r="AO6" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="AP6" s="9" t="s">
+      <c r="AP6" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="AQ6" s="9" t="s">
+      <c r="AQ6" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="AR6" s="9" t="s">
+      <c r="AR6" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="AS6" s="9" t="s">
+      <c r="AS6" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="AT6" s="9" t="s">
+      <c r="AT6" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="AU6" s="9" t="s">
+      <c r="AU6" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="AV6" s="9" t="s">
+      <c r="AV6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="AW6" s="9" t="s">
+      <c r="AW6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="AX6" s="9" t="s">
+      <c r="AX6" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AY6" s="9" t="s">
+      <c r="AY6" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="AZ6" s="9" t="s">
+      <c r="AZ6" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="BA6" s="9" t="s">
+      <c r="BA6" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="BB6" s="9" t="s">
+      <c r="BB6" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="BC6" s="9" t="s">
+      <c r="BC6" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="BD6" s="9" t="s">
+      <c r="BD6" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="BE6" s="9" t="s">
+      <c r="BE6" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="BF6" s="9" t="s">
+      <c r="BF6" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="BG6" s="9" t="s">
+      <c r="BG6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="BH6" s="9" t="s">
+      <c r="BH6" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="BI6" s="9" t="s">
+      <c r="BI6" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="BJ6" s="9" t="s">
+      <c r="BJ6" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="BK6" s="9" t="s">
+      <c r="BK6" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="BL6" s="9" t="s">
+      <c r="BL6" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="BM6" s="9" t="s">
+      <c r="BM6" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="BN6" s="9" t="s">
+      <c r="BN6" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="BO6" s="9" t="s">
+      <c r="BO6" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="BP6" s="9" t="s">
+      <c r="BP6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="BQ6" s="9" t="s">
+      <c r="BQ6" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="BR6" s="9" t="s">
+      <c r="BR6" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BS6" s="9" t="s">
+      <c r="BS6" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BT6" s="9" t="s">
+      <c r="BT6" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BU6" s="9" t="s">
+      <c r="BU6" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="BV6" s="9" t="s">
+      <c r="BV6" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="BW6" s="9" t="s">
+      <c r="BW6" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="BX6" s="9" t="s">
+      <c r="BX6" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="BY6" s="9" t="s">
+      <c r="BY6" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BZ6" s="9" t="s">
+      <c r="BZ6" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="CA6" s="9" t="s">
+      <c r="CA6" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="CB6" s="9" t="s">
+      <c r="CB6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="CC6" s="9" t="s">
+      <c r="CC6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="CD6" s="9" t="s">
+      <c r="CD6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="CE6" s="9" t="s">
+      <c r="CE6" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="CF6" s="9" t="s">
+      <c r="CF6" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="CG6" s="9" t="s">
+      <c r="CG6" s="4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:86" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:86">
+      <c r="A7" s="25"/>
+      <c r="B7" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="L7" s="9" t="s">
+      <c r="L7" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="M7" s="9" t="s">
+      <c r="M7" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="O7" s="9" t="s">
+      <c r="O7" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="Q7" s="9" t="s">
+      <c r="Q7" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="R7" s="9" t="s">
+      <c r="R7" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="T7" s="9" t="s">
+      <c r="T7" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="W7" s="9" t="s">
+      <c r="W7" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="X7" s="9" t="s">
+      <c r="X7" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="Y7" s="9" t="s">
+      <c r="Y7" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Z7" s="9" t="s">
+      <c r="Z7" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="AA7" s="9" t="s">
+      <c r="AA7" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AB7" s="9" t="s">
+      <c r="AB7" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AC7" s="9" t="s">
+      <c r="AC7" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AD7" s="9" t="s">
+      <c r="AD7" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AE7" s="9" t="s">
+      <c r="AE7" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AF7" s="9" t="s">
+      <c r="AF7" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="AG7" s="9" t="s">
+      <c r="AG7" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="AH7" s="9" t="s">
+      <c r="AH7" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="AI7" s="9" t="s">
+      <c r="AI7" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="AJ7" s="9" t="s">
+      <c r="AJ7" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="AK7" s="9" t="s">
+      <c r="AK7" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="AL7" s="9" t="s">
+      <c r="AL7" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="AM7" s="9" t="s">
+      <c r="AM7" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="AN7" s="9" t="s">
+      <c r="AN7" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="AO7" s="9" t="s">
+      <c r="AO7" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="AP7" s="9" t="s">
+      <c r="AP7" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="AQ7" s="9" t="s">
+      <c r="AQ7" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="AR7" s="9" t="s">
+      <c r="AR7" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="AS7" s="9" t="s">
+      <c r="AS7" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="AT7" s="9" t="s">
+      <c r="AT7" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="AU7" s="9" t="s">
+      <c r="AU7" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="AV7" s="9" t="s">
+      <c r="AV7" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="AW7" s="9" t="s">
+      <c r="AW7" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="AX7" s="9" t="s">
+      <c r="AX7" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="AY7" s="9" t="s">
+      <c r="AY7" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="AZ7" s="9" t="s">
+      <c r="AZ7" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="BA7" s="9" t="s">
+      <c r="BA7" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="BB7" s="9" t="s">
+      <c r="BB7" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="BC7" s="9" t="s">
+      <c r="BC7" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="BD7" s="9" t="s">
+      <c r="BD7" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="BE7" s="9" t="s">
+      <c r="BE7" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="BF7" s="9" t="s">
+      <c r="BF7" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="BG7" s="9" t="s">
+      <c r="BG7" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="BH7" s="9" t="s">
+      <c r="BH7" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="BI7" s="9" t="s">
+      <c r="BI7" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="BJ7" s="9" t="s">
+      <c r="BJ7" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="BK7" s="9" t="s">
+      <c r="BK7" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="BL7" s="9" t="s">
+      <c r="BL7" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="BM7" s="9" t="s">
+      <c r="BM7" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="BN7" s="9" t="s">
+      <c r="BN7" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="BO7" s="9" t="s">
+      <c r="BO7" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="BP7" s="9" t="s">
+      <c r="BP7" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="BQ7" s="9" t="s">
+      <c r="BQ7" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="BR7" s="9" t="s">
+      <c r="BR7" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="BS7" s="9" t="s">
+      <c r="BS7" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="BT7" s="9" t="s">
+      <c r="BT7" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="BU7" s="9" t="s">
+      <c r="BU7" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="BV7" s="9" t="s">
+      <c r="BV7" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="BW7" s="9" t="s">
+      <c r="BW7" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="BX7" s="9" t="s">
+      <c r="BX7" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="BY7" s="9" t="s">
+      <c r="BY7" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="BZ7" s="9" t="s">
+      <c r="BZ7" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="CA7" s="9" t="s">
+      <c r="CA7" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="CB7" s="9" t="s">
+      <c r="CB7" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="CC7" s="9" t="s">
+      <c r="CC7" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="CD7" s="9" t="s">
+      <c r="CD7" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="CE7" s="9" t="s">
+      <c r="CE7" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="CF7" s="9" t="s">
+      <c r="CF7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="CG7" s="9" t="s">
+      <c r="CG7" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="CH7" s="12" t="s">
+      <c r="CH7" s="6" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:86">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -2837,11 +5114,11 @@
       <c r="CG8">
         <v>599183</v>
       </c>
-      <c r="CH8" s="13">
+      <c r="CH8" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:86">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -3097,11 +5374,11 @@
       <c r="CG9">
         <v>95694</v>
       </c>
-      <c r="CH9" s="13">
+      <c r="CH9" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:86">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -3357,11 +5634,11 @@
       <c r="CG10">
         <v>360070</v>
       </c>
-      <c r="CH10" s="13">
+      <c r="CH10" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:86">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -3617,11 +5894,11 @@
       <c r="CG11">
         <v>110710</v>
       </c>
-      <c r="CH11" s="13">
+      <c r="CH11" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:86">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -3877,11 +6154,11 @@
       <c r="CG12">
         <v>89478</v>
       </c>
-      <c r="CH12" s="13">
+      <c r="CH12" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:86">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -4137,11 +6414,11 @@
       <c r="CG13">
         <v>688205</v>
       </c>
-      <c r="CH13" s="13">
+      <c r="CH13" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:86">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4397,11 +6674,11 @@
       <c r="CG14">
         <v>1869487</v>
       </c>
-      <c r="CH14" s="13">
+      <c r="CH14" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:86">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -4657,11 +6934,11 @@
       <c r="CG15">
         <v>194306</v>
       </c>
-      <c r="CH15" s="13">
+      <c r="CH15" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:86">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -4917,11 +7194,11 @@
       <c r="CG16">
         <v>239531</v>
       </c>
-      <c r="CH16" s="13">
+      <c r="CH16" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:86">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -5177,11 +7454,11 @@
       <c r="CG17">
         <v>324886</v>
       </c>
-      <c r="CH17" s="13">
+      <c r="CH17" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:86">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -5437,11 +7714,11 @@
       <c r="CG18">
         <v>546603</v>
       </c>
-      <c r="CH18" s="13">
+      <c r="CH18" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:86">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -5697,11 +7974,11 @@
       <c r="CG19">
         <v>735165</v>
       </c>
-      <c r="CH19" s="13">
+      <c r="CH19" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:86">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -5957,11 +8234,11 @@
       <c r="CG20">
         <v>914152</v>
       </c>
-      <c r="CH20" s="13">
+      <c r="CH20" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:86">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -6217,11 +8494,11 @@
       <c r="CG21">
         <v>378063</v>
       </c>
-      <c r="CH21" s="13">
+      <c r="CH21" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:86">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -6477,11 +8754,11 @@
       <c r="CG22">
         <v>1168679</v>
       </c>
-      <c r="CH22" s="13">
+      <c r="CH22" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:86">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -6737,11 +9014,11 @@
       <c r="CG23">
         <v>297115</v>
       </c>
-      <c r="CH23" s="13">
+      <c r="CH23" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:86">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -6997,11 +9274,11 @@
       <c r="CG24">
         <v>238117</v>
       </c>
-      <c r="CH24" s="13">
+      <c r="CH24" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:86">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -7257,11 +9534,11 @@
       <c r="CG25">
         <v>536261</v>
       </c>
-      <c r="CH25" s="13">
+      <c r="CH25" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:86">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -7517,11 +9794,11 @@
       <c r="CG26">
         <v>1680935</v>
       </c>
-      <c r="CH26" s="13">
+      <c r="CH26" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:86">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -7777,11 +10054,11 @@
       <c r="CG27">
         <v>192205</v>
       </c>
-      <c r="CH27" s="13">
+      <c r="CH27" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:86">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -8037,11 +10314,11 @@
       <c r="CG28">
         <v>382487</v>
       </c>
-      <c r="CH28" s="13">
+      <c r="CH28" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:86">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -8297,11 +10574,11 @@
       <c r="CG29">
         <v>270780</v>
       </c>
-      <c r="CH29" s="13">
+      <c r="CH29" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:86">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -8557,11 +10834,11 @@
       <c r="CG30">
         <v>87281</v>
       </c>
-      <c r="CH30" s="13">
+      <c r="CH30" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:86">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -8817,11 +11094,11 @@
       <c r="CG31">
         <v>689261</v>
       </c>
-      <c r="CH31" s="13">
+      <c r="CH31" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:86">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -9077,11 +11354,11 @@
       <c r="CG32">
         <v>1578690</v>
       </c>
-      <c r="CH32" s="13">
+      <c r="CH32" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:86">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -9337,11 +11614,11 @@
       <c r="CG33">
         <v>412540</v>
       </c>
-      <c r="CH33" s="13">
+      <c r="CH33" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:86">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -9597,11 +11874,11 @@
       <c r="CG34">
         <v>98841</v>
       </c>
-      <c r="CH34" s="13">
+      <c r="CH34" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:86">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -9857,11 +12134,11 @@
       <c r="CG35">
         <v>0</v>
       </c>
-      <c r="CH35" s="13">
+      <c r="CH35" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:86">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -10117,11 +12394,11 @@
       <c r="CG36">
         <v>0</v>
       </c>
-      <c r="CH36" s="13">
+      <c r="CH36" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:86">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -10377,11 +12654,11 @@
       <c r="CG37">
         <v>0</v>
       </c>
-      <c r="CH37" s="13">
+      <c r="CH37" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:86">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -10637,11 +12914,11 @@
       <c r="CG38">
         <v>11440</v>
       </c>
-      <c r="CH38" s="13">
+      <c r="CH38" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:86">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -10897,11 +13174,11 @@
       <c r="CG39">
         <v>135217</v>
       </c>
-      <c r="CH39" s="13">
+      <c r="CH39" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:86">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -11157,11 +13434,11 @@
       <c r="CG40">
         <v>7006</v>
       </c>
-      <c r="CH40" s="13">
+      <c r="CH40" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:86">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -11417,11 +13694,11 @@
       <c r="CG41">
         <v>20133</v>
       </c>
-      <c r="CH41" s="13">
+      <c r="CH41" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:86">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -11677,11 +13954,11 @@
       <c r="CG42">
         <v>39328</v>
       </c>
-      <c r="CH42" s="13">
+      <c r="CH42" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:86">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -11937,11 +14214,11 @@
       <c r="CG43">
         <v>83112</v>
       </c>
-      <c r="CH43" s="13">
+      <c r="CH43" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:86">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -12197,11 +14474,11 @@
       <c r="CG44">
         <v>758</v>
       </c>
-      <c r="CH44" s="13">
+      <c r="CH44" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:86">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -12457,11 +14734,11 @@
       <c r="CG45">
         <v>282446</v>
       </c>
-      <c r="CH45" s="13">
+      <c r="CH45" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:86">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -12717,11 +14994,11 @@
       <c r="CG46">
         <v>159306</v>
       </c>
-      <c r="CH46" s="13">
+      <c r="CH46" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:86">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -12977,11 +15254,11 @@
       <c r="CG47">
         <v>486509</v>
       </c>
-      <c r="CH47" s="13">
+      <c r="CH47" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:86">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -13237,11 +15514,11 @@
       <c r="CG48">
         <v>147805</v>
       </c>
-      <c r="CH48" s="13">
+      <c r="CH48" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:86">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -13497,11 +15774,11 @@
       <c r="CG49">
         <v>745649</v>
       </c>
-      <c r="CH49" s="13">
+      <c r="CH49" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:86">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -13757,11 +16034,11 @@
       <c r="CG50">
         <v>343305</v>
       </c>
-      <c r="CH50" s="13">
+      <c r="CH50" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:86">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -14017,11 +16294,11 @@
       <c r="CG51">
         <v>951104</v>
       </c>
-      <c r="CH51" s="13">
+      <c r="CH51" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:86">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -14277,11 +16554,11 @@
       <c r="CG52">
         <v>692094</v>
       </c>
-      <c r="CH52" s="13">
+      <c r="CH52" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:86">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -14537,11 +16814,11 @@
       <c r="CG53">
         <v>1414618</v>
       </c>
-      <c r="CH53" s="13">
+      <c r="CH53" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:86">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -14797,11 +17074,11 @@
       <c r="CG54">
         <v>193031</v>
       </c>
-      <c r="CH54" s="13">
+      <c r="CH54" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:86">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -15057,11 +17334,11 @@
       <c r="CG55">
         <v>2313760</v>
       </c>
-      <c r="CH55" s="13">
+      <c r="CH55" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:86">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -15317,11 +17594,11 @@
       <c r="CG56">
         <v>1402067</v>
       </c>
-      <c r="CH56" s="13">
+      <c r="CH56" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:86">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -15577,11 +17854,11 @@
       <c r="CG57">
         <v>483142</v>
       </c>
-      <c r="CH57" s="13">
+      <c r="CH57" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:86">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -15837,11 +18114,11 @@
       <c r="CG58">
         <v>376761</v>
       </c>
-      <c r="CH58" s="13">
+      <c r="CH58" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:86">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -16097,11 +18374,11 @@
       <c r="CG59">
         <v>613405</v>
       </c>
-      <c r="CH59" s="13">
+      <c r="CH59" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:86">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -16357,11 +18634,11 @@
       <c r="CG60">
         <v>2436816</v>
       </c>
-      <c r="CH60" s="13">
+      <c r="CH60" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:86">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -16617,11 +18894,11 @@
       <c r="CG61">
         <v>657761</v>
       </c>
-      <c r="CH61" s="13">
+      <c r="CH61" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:86">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -16877,11 +19154,11 @@
       <c r="CG62">
         <v>1036945</v>
       </c>
-      <c r="CH62" s="13">
+      <c r="CH62" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:86">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -17137,11 +19414,11 @@
       <c r="CG63">
         <v>129166</v>
       </c>
-      <c r="CH63" s="13">
+      <c r="CH63" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:86">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -17397,11 +19674,11 @@
       <c r="CG64">
         <v>406150</v>
       </c>
-      <c r="CH64" s="13">
+      <c r="CH64" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:86">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -17657,11 +19934,11 @@
       <c r="CG65">
         <v>1131292</v>
       </c>
-      <c r="CH65" s="13">
+      <c r="CH65" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:86">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -17917,11 +20194,11 @@
       <c r="CG66">
         <v>1156783</v>
       </c>
-      <c r="CH66" s="13">
+      <c r="CH66" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:86">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -18177,11 +20454,11 @@
       <c r="CG67">
         <v>258789</v>
       </c>
-      <c r="CH67" s="13">
+      <c r="CH67" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:86">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -18437,11 +20714,11 @@
       <c r="CG68">
         <v>238688</v>
       </c>
-      <c r="CH68" s="13">
+      <c r="CH68" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:86">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -18697,11 +20974,11 @@
       <c r="CG69">
         <v>126675</v>
       </c>
-      <c r="CH69" s="13">
+      <c r="CH69" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:86">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -18957,11 +21234,11 @@
       <c r="CG70">
         <v>156006</v>
       </c>
-      <c r="CH70" s="13">
+      <c r="CH70" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:86">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -19217,11 +21494,11 @@
       <c r="CG71">
         <v>145130</v>
       </c>
-      <c r="CH71" s="13">
+      <c r="CH71" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:86">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -19477,11 +21754,11 @@
       <c r="CG72">
         <v>869400</v>
       </c>
-      <c r="CH72" s="13">
+      <c r="CH72" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:86">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -19737,11 +22014,11 @@
       <c r="CG73">
         <v>880271</v>
       </c>
-      <c r="CH73" s="13">
+      <c r="CH73" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:86">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -19997,11 +22274,11 @@
       <c r="CG74">
         <v>700477</v>
       </c>
-      <c r="CH74" s="13">
+      <c r="CH74" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:86">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -20257,11 +22534,11 @@
       <c r="CG75">
         <v>460969</v>
       </c>
-      <c r="CH75" s="13">
+      <c r="CH75" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:86">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -20517,11 +22794,11 @@
       <c r="CG76">
         <v>71213</v>
       </c>
-      <c r="CH76" s="13">
+      <c r="CH76" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:86">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -20777,11 +23054,11 @@
       <c r="CG77">
         <v>1916544</v>
       </c>
-      <c r="CH77" s="13">
+      <c r="CH77" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:86">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -21037,11 +23314,11 @@
       <c r="CG78">
         <v>111092</v>
       </c>
-      <c r="CH78" s="13">
+      <c r="CH78" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:86">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -21297,11 +23574,11 @@
       <c r="CG79">
         <v>182129</v>
       </c>
-      <c r="CH79" s="13">
+      <c r="CH79" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:86" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:86">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -21557,15 +23834,15 @@
       <c r="CG80">
         <v>202563</v>
       </c>
-      <c r="CH80" s="13">
+      <c r="CH80" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:85">
       <c r="A81" t="s">
         <v>226</v>
       </c>
-      <c r="B81" s="10" t="s">
+      <c r="B81" s="5" t="s">
         <v>227</v>
       </c>
       <c r="C81">
@@ -21831,7 +24108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27130C2E-0479-46E8-A0A0-BE00F4868B20}">
   <dimension ref="A1:K54"/>
   <sheetViews>
@@ -21839,130 +24116,130 @@
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="32.26953125" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.4">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="18">
+      <c r="A1" s="22" t="s">
         <v>228</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:11" ht="16.5">
+      <c r="A2" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:11">
+      <c r="A4" s="23" t="s">
         <v>230</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="25" t="s">
         <v>231</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="25" t="s">
         <v>232</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25" t="s">
         <v>233</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="9" t="s">
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="4" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="9" t="s">
+    <row r="7" spans="1:11">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="H7" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="I7" s="9" t="s">
+      <c r="I7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="J7" s="9" t="s">
+      <c r="J7" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="K7" s="9" t="s">
+      <c r="K7" s="4" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8" t="s">
         <v>239</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="5" t="s">
         <v>240</v>
       </c>
       <c r="C8">
@@ -21993,7 +24270,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -22028,7 +24305,7 @@
         <v>2368.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -22063,7 +24340,7 @@
         <v>671.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -22098,7 +24375,7 @@
         <v>629.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -22133,7 +24410,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -22168,23 +24445,23 @@
         <v>1541.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14" t="s">
         <v>251</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="8" t="s">
         <v>252</v>
       </c>
-      <c r="C14" s="16">
+      <c r="C14" s="8">
         <v>457</v>
       </c>
-      <c r="D14" s="16">
+      <c r="D14" s="8">
         <v>419.3</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E14" s="8">
         <v>457.2</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="8">
         <v>462</v>
       </c>
       <c r="G14">
@@ -22203,7 +24480,7 @@
         <v>533.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -22238,7 +24515,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -22273,7 +24550,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -22308,7 +24585,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -22343,7 +24620,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -22378,7 +24655,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -22413,7 +24690,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -22448,7 +24725,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -22483,7 +24760,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -22518,7 +24795,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -22553,7 +24830,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -22588,7 +24865,7 @@
         <v>916.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -22623,7 +24900,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -22658,7 +24935,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -22693,7 +24970,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -22728,11 +25005,11 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="5" t="s">
         <v>281</v>
       </c>
       <c r="C30">
@@ -22763,7 +25040,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11">
       <c r="A31" t="s">
         <v>282</v>
       </c>
@@ -22798,7 +25075,7 @@
         <v>2180.3000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -22833,7 +25110,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -22868,7 +25145,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -22903,7 +25180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -22938,7 +25215,7 @@
         <v>284.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -22973,7 +25250,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -23008,7 +25285,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -23043,11 +25320,11 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>297</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="5" t="s">
         <v>298</v>
       </c>
       <c r="C39">
@@ -23078,7 +25355,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -23113,7 +25390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11">
       <c r="A41" t="s">
         <v>301</v>
       </c>
@@ -23148,7 +25425,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -23183,11 +25460,11 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>303</v>
       </c>
-      <c r="B43" s="10" t="s">
+      <c r="B43" s="5" t="s">
         <v>304</v>
       </c>
       <c r="C43">
@@ -23218,7 +25495,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -23253,7 +25530,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -23288,11 +25565,11 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11">
       <c r="A46" t="s">
         <v>308</v>
       </c>
-      <c r="B46" s="10" t="s">
+      <c r="B46" s="5" t="s">
         <v>309</v>
       </c>
       <c r="C46">
@@ -23323,7 +25600,7 @@
         <v>3532.3</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -23358,7 +25635,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -23393,7 +25670,7 @@
         <v>450.3</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -23428,7 +25705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -23463,7 +25740,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -23498,11 +25775,11 @@
         <v>350.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>318</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="5" t="s">
         <v>319</v>
       </c>
       <c r="C52">
@@ -23533,35 +25810,35 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15" x14ac:dyDescent="0.4">
-      <c r="A53" s="14" t="s">
+    <row r="53" spans="1:11" ht="15.75">
+      <c r="A53" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
-      <c r="I53" s="6"/>
-      <c r="J53" s="6"/>
-      <c r="K53" s="6"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" s="15" t="s">
+    <row r="54" spans="1:11">
+      <c r="A54" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="23"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -23580,7 +25857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D25AABD1-0D09-4A7E-A29B-4F41AA94F3B1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -23588,13 +25865,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.81640625" customWidth="1"/>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -23603,7 +25880,7 @@
         <v>1795500000000</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -23612,11 +25889,11 @@
         <v>34904443000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
         <v>325</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="9">
         <f>B1/B2</f>
         <v>5.1440442696650393E-2</v>
       </c>
@@ -23626,323 +25903,325 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AQ2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AQ2" sqref="B2:AQ2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.453125" customWidth="1"/>
-    <col min="2" max="2" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="15.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:43" ht="30">
+      <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="S1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="T1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="U1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="V1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="4" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="4" t="s">
+      <c r="X1" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="4" t="s">
+      <c r="Y1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="4" t="s">
+      <c r="Z1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="4" t="s">
+      <c r="AA1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="4" t="s">
+      <c r="AB1" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="4" t="s">
+      <c r="AC1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="4" t="s">
+      <c r="AD1" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="4" t="s">
+      <c r="AE1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="4" t="s">
+      <c r="AF1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="4" t="s">
+      <c r="AG1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="4" t="s">
+      <c r="AH1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="4" t="s">
+      <c r="AI1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="4" t="s">
+      <c r="AJ1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="4" t="s">
+      <c r="AK1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AL1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AM1" s="4" t="s">
+      <c r="AM1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AN1" s="4" t="s">
+      <c r="AN1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="4" t="s">
+      <c r="AO1" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="AP1" s="4" t="s">
+      <c r="AP1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="AQ1" s="4" t="s">
+      <c r="AQ1" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:43">
       <c r="A2" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="C2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="D2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="E2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="F2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="G2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="H2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="I2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="J2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="K2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="L2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="M2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="N2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="O2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="P2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="Q2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="R2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="S2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="T2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="U2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="V2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="W2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="X2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="Y2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="Z2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AA2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AB2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AC2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AD2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AE2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AF2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AG2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AH2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AI2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AJ2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AK2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AL2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AM2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AO2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AP2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
-      </c>
-      <c r="AQ2" s="19">
-        <f>'Average Tax Rate'!$B$4</f>
-        <v>5.1440442696650393E-2</v>
+      <c r="B2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="C2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="D2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="E2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="F2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="G2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="H2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="I2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="J2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="K2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="L2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="M2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="N2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="O2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="P2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="Q2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="R2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="S2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="T2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="U2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="V2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="W2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="X2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="Y2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="Z2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AA2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AB2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AC2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AD2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AE2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AF2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AG2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AH2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AI2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AJ2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AK2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AL2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AM2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AN2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AO2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AP2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
+      </c>
+      <c r="AQ2" s="11">
+        <f>SUMIFS('State tax rate'!$F:$F,'State tax rate'!$A:$A,About!$B$2)</f>
+        <v>7.7700000000000005E-2</v>
       </c>
     </row>
   </sheetData>

--- a/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
+++ b/InputData/io-model/VoSTR/VAT or Sales Tax Rate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\RMI\RMI_all_states\CO\io-model\VoSTR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nathan\Documents\state-eps-data-repository\CO\io-model\VoSTR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5739E860-5D5E-43E6-8170-BB9419002ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E35B20E-26E1-4237-8A06-41984499F902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13560" yWindow="6780" windowWidth="15240" windowHeight="10545" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Average Tax Rate" sheetId="5" r:id="rId5"/>
     <sheet name="VoSTR" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateDelta="1.0000000000000001E-5"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1516,7 +1516,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1551,21 +1551,25 @@
       <b/>
       <sz val="14"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="13"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1584,11 +1588,13 @@
       <i/>
       <sz val="15"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <i/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1762,9 +1768,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1802,9 +1808,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1837,26 +1843,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1889,26 +1878,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2088,7 +2060,7 @@
       <selection activeCell="F2" sqref="F2:F51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
@@ -2096,7 +2068,7 @@
     <col min="5" max="6" width="9.140625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2104,7 +2076,7 @@
         <v>346</v>
       </c>
       <c r="C1" s="16">
-        <v>44827</v>
+        <v>45298</v>
       </c>
       <c r="E1" s="12" t="s">
         <v>335</v>
@@ -2113,7 +2085,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="str">
         <f>INDEX(F:F,MATCH(B1,E:E,0))</f>
         <v>CO</v>
@@ -2126,7 +2098,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>329</v>
       </c>
@@ -2143,7 +2115,7 @@
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>331</v>
       </c>
@@ -2154,7 +2126,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="14">
         <v>2022</v>
       </c>
@@ -2165,7 +2137,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
         <v>49</v>
       </c>
@@ -2176,7 +2148,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
         <v>332</v>
       </c>
@@ -2187,7 +2159,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E8" s="13" t="s">
         <v>348</v>
       </c>
@@ -2195,7 +2167,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="10" t="s">
         <v>330</v>
       </c>
@@ -2209,7 +2181,7 @@
       </c>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
         <v>331</v>
       </c>
@@ -2220,7 +2192,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="14">
         <v>2022</v>
       </c>
@@ -2231,7 +2203,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
         <v>228</v>
       </c>
@@ -2242,7 +2214,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>333</v>
       </c>
@@ -2253,7 +2225,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B14" s="14"/>
       <c r="E14" s="13" t="s">
         <v>360</v>
@@ -2262,7 +2234,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>487</v>
       </c>
@@ -2273,7 +2245,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" s="14" t="s">
         <v>488</v>
       </c>
@@ -2284,7 +2256,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B17" s="14">
         <v>2022</v>
       </c>
@@ -2295,7 +2267,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>486</v>
       </c>
@@ -2306,7 +2278,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
         <v>489</v>
       </c>
@@ -2317,7 +2289,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E20" s="13" t="s">
         <v>372</v>
       </c>
@@ -2325,7 +2297,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E21" s="13" t="s">
         <v>374</v>
       </c>
@@ -2333,7 +2305,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E22" s="13" t="s">
         <v>376</v>
       </c>
@@ -2341,7 +2313,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E23" s="13" t="s">
         <v>378</v>
       </c>
@@ -2349,7 +2321,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E24" s="13" t="s">
         <v>380</v>
       </c>
@@ -2357,7 +2329,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E25" s="13" t="s">
         <v>382</v>
       </c>
@@ -2365,7 +2337,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
@@ -2376,7 +2348,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>46</v>
       </c>
@@ -2387,7 +2359,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E28" s="13" t="s">
         <v>388</v>
       </c>
@@ -2395,7 +2367,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>47</v>
       </c>
@@ -2406,7 +2378,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>48</v>
       </c>
@@ -2417,7 +2389,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E31" s="13" t="s">
         <v>394</v>
       </c>
@@ -2425,7 +2397,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>326</v>
       </c>
@@ -2436,7 +2408,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>327</v>
       </c>
@@ -2447,7 +2419,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>328</v>
       </c>
@@ -2458,7 +2430,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E35" s="13" t="s">
         <v>402</v>
       </c>
@@ -2466,7 +2438,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E36" s="13" t="s">
         <v>404</v>
       </c>
@@ -2474,7 +2446,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E37" s="13" t="s">
         <v>406</v>
       </c>
@@ -2482,7 +2454,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E38" s="13" t="s">
         <v>408</v>
       </c>
@@ -2490,7 +2462,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E39" s="13" t="s">
         <v>410</v>
       </c>
@@ -2498,7 +2470,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E40" s="13" t="s">
         <v>412</v>
       </c>
@@ -2506,7 +2478,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E41" s="13" t="s">
         <v>414</v>
       </c>
@@ -2514,7 +2486,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E42" s="13" t="s">
         <v>416</v>
       </c>
@@ -2522,7 +2494,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E43" s="13" t="s">
         <v>418</v>
       </c>
@@ -2530,7 +2502,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E44" s="13" t="s">
         <v>420</v>
       </c>
@@ -2538,7 +2510,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E45" s="13" t="s">
         <v>422</v>
       </c>
@@ -2546,7 +2518,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E46" s="13" t="s">
         <v>424</v>
       </c>
@@ -2554,7 +2526,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E47" s="13" t="s">
         <v>426</v>
       </c>
@@ -2562,7 +2534,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E48" s="13" t="s">
         <v>428</v>
       </c>
@@ -2570,7 +2542,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="49" spans="5:6">
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E49" s="13" t="s">
         <v>334</v>
       </c>
@@ -2578,7 +2550,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="50" spans="5:6">
+    <row r="50" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E50" s="13" t="s">
         <v>431</v>
       </c>
@@ -2586,7 +2558,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="51" spans="5:6">
+    <row r="51" spans="5:6" x14ac:dyDescent="0.25">
       <c r="E51" s="13" t="s">
         <v>433</v>
       </c>
@@ -2606,17 +2578,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="14.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="21.75">
+    <row r="1" spans="1:8" ht="27.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="19" t="s">
         <v>486</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>335</v>
       </c>
@@ -2639,7 +2611,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>337</v>
       </c>
@@ -2665,7 +2637,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>339</v>
       </c>
@@ -2691,7 +2663,7 @@
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
         <v>341</v>
       </c>
@@ -2717,7 +2689,7 @@
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>343</v>
       </c>
@@ -2743,7 +2715,7 @@
         <v>6.1249999999999999E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>345</v>
       </c>
@@ -2769,7 +2741,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
         <v>347</v>
       </c>
@@ -2795,7 +2767,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>349</v>
       </c>
@@ -2821,7 +2793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>351</v>
       </c>
@@ -2847,7 +2819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>447</v>
       </c>
@@ -2870,7 +2842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
         <v>353</v>
       </c>
@@ -2896,7 +2868,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
         <v>355</v>
       </c>
@@ -2922,7 +2894,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
         <v>357</v>
       </c>
@@ -2948,7 +2920,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
         <v>359</v>
       </c>
@@ -2974,7 +2946,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
         <v>361</v>
       </c>
@@ -3000,7 +2972,7 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>363</v>
       </c>
@@ -3026,7 +2998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>365</v>
       </c>
@@ -3052,7 +3024,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
         <v>367</v>
       </c>
@@ -3078,7 +3050,7 @@
         <v>4.2500000000000003E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
         <v>369</v>
       </c>
@@ -3104,7 +3076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
         <v>371</v>
       </c>
@@ -3130,7 +3102,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
         <v>373</v>
       </c>
@@ -3156,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
         <v>375</v>
       </c>
@@ -3182,7 +3154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
         <v>377</v>
       </c>
@@ -3208,7 +3180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
         <v>379</v>
       </c>
@@ -3234,7 +3206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
         <v>381</v>
       </c>
@@ -3260,7 +3232,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
         <v>383</v>
       </c>
@@ -3286,7 +3258,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
         <v>385</v>
       </c>
@@ -3312,7 +3284,7 @@
         <v>5.7630000000000001E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
         <v>387</v>
       </c>
@@ -3338,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
         <v>389</v>
       </c>
@@ -3364,7 +3336,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
         <v>391</v>
       </c>
@@ -3390,7 +3362,7 @@
         <v>1.5299999999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
         <v>393</v>
       </c>
@@ -3416,7 +3388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
         <v>395</v>
       </c>
@@ -3442,7 +3414,7 @@
         <v>3.313E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
         <v>397</v>
       </c>
@@ -3468,7 +3440,7 @@
         <v>4.3130000000000002E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="13" t="s">
         <v>399</v>
       </c>
@@ -3494,7 +3466,7 @@
         <v>4.8750000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>401</v>
       </c>
@@ -3520,7 +3492,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="13" t="s">
         <v>403</v>
       </c>
@@ -3546,7 +3518,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>405</v>
       </c>
@@ -3572,7 +3544,7 @@
         <v>2.2499999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="13" t="s">
         <v>407</v>
       </c>
@@ -3598,7 +3570,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="13" t="s">
         <v>409</v>
       </c>
@@ -3624,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
         <v>411</v>
       </c>
@@ -3650,7 +3622,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
         <v>413</v>
       </c>
@@ -3676,7 +3648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="13" t="s">
         <v>415</v>
       </c>
@@ -3702,7 +3674,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="13" t="s">
         <v>417</v>
       </c>
@@ -3728,7 +3700,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
         <v>419</v>
       </c>
@@ -3754,7 +3726,7 @@
         <v>2.75E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
         <v>421</v>
       </c>
@@ -3780,7 +3752,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="13" t="s">
         <v>423</v>
       </c>
@@ -3806,7 +3778,7 @@
         <v>2.9499999999999998E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="13" t="s">
         <v>425</v>
       </c>
@@ -3832,7 +3804,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>427</v>
       </c>
@@ -3858,7 +3830,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="13" t="s">
         <v>429</v>
       </c>
@@ -3884,7 +3856,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="13" t="s">
         <v>430</v>
       </c>
@@ -3910,7 +3882,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="13" t="s">
         <v>432</v>
       </c>
@@ -3936,7 +3908,7 @@
         <v>1.7500000000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
         <v>434</v>
       </c>
@@ -3979,7 +3951,7 @@
       <selection pane="bottomRight" activeCell="CG8" sqref="CG8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="36.28515625" customWidth="1"/>
     <col min="3" max="84" width="0" hidden="1" customWidth="1"/>
@@ -3987,7 +3959,7 @@
     <col min="86" max="86" width="30.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" ht="18">
+    <row r="1" spans="1:86" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>49</v>
       </c>
@@ -4076,7 +4048,7 @@
       <c r="CF1" s="23"/>
       <c r="CG1" s="23"/>
     </row>
-    <row r="2" spans="1:86" ht="16.5">
+    <row r="2" spans="1:86" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>50</v>
       </c>
@@ -4165,7 +4137,7 @@
       <c r="CF2" s="23"/>
       <c r="CG2" s="23"/>
     </row>
-    <row r="3" spans="1:86">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
@@ -4254,7 +4226,7 @@
       <c r="CF3" s="23"/>
       <c r="CG3" s="23"/>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>52</v>
       </c>
@@ -4343,7 +4315,7 @@
       <c r="CF4" s="23"/>
       <c r="CG4" s="23"/>
     </row>
-    <row r="6" spans="1:86">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>52</v>
       </c>
@@ -4600,7 +4572,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="4" t="s">
         <v>137</v>
@@ -4858,7 +4830,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="8" spans="1:86">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>54</v>
       </c>
@@ -5118,7 +5090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -5378,7 +5350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>56</v>
       </c>
@@ -5638,7 +5610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:86">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -5898,7 +5870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:86">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>58</v>
       </c>
@@ -6158,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:86">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>59</v>
       </c>
@@ -6418,7 +6390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:86">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -6678,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:86">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>61</v>
       </c>
@@ -6938,7 +6910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:86">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>62</v>
       </c>
@@ -7198,7 +7170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:86">
+    <row r="17" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -7458,7 +7430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:86">
+    <row r="18" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>64</v>
       </c>
@@ -7718,7 +7690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:86">
+    <row r="19" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>65</v>
       </c>
@@ -7978,7 +7950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:86">
+    <row r="20" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>66</v>
       </c>
@@ -8238,7 +8210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:86">
+    <row r="21" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -8498,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:86">
+    <row r="22" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>68</v>
       </c>
@@ -8758,7 +8730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:86">
+    <row r="23" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -9018,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:86">
+    <row r="24" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>70</v>
       </c>
@@ -9278,7 +9250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:86">
+    <row r="25" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -9538,7 +9510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:86">
+    <row r="26" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>72</v>
       </c>
@@ -9798,7 +9770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:86">
+    <row r="27" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>73</v>
       </c>
@@ -10058,7 +10030,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:86">
+    <row r="28" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>74</v>
       </c>
@@ -10318,7 +10290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:86">
+    <row r="29" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>75</v>
       </c>
@@ -10578,7 +10550,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:86">
+    <row r="30" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>76</v>
       </c>
@@ -10838,7 +10810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:86">
+    <row r="31" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>77</v>
       </c>
@@ -11098,7 +11070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:86">
+    <row r="32" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>78</v>
       </c>
@@ -11358,7 +11330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:86">
+    <row r="33" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>79</v>
       </c>
@@ -11618,7 +11590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:86">
+    <row r="34" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>80</v>
       </c>
@@ -11878,7 +11850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:86">
+    <row r="35" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>81</v>
       </c>
@@ -12138,7 +12110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:86">
+    <row r="36" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>82</v>
       </c>
@@ -12398,7 +12370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:86">
+    <row r="37" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>83</v>
       </c>
@@ -12658,7 +12630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:86">
+    <row r="38" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>84</v>
       </c>
@@ -12918,7 +12890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:86">
+    <row r="39" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>85</v>
       </c>
@@ -13178,7 +13150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:86">
+    <row r="40" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -13438,7 +13410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:86">
+    <row r="41" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -13698,7 +13670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:86">
+    <row r="42" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>88</v>
       </c>
@@ -13958,7 +13930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:86">
+    <row r="43" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>89</v>
       </c>
@@ -14218,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:86">
+    <row r="44" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>90</v>
       </c>
@@ -14478,7 +14450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:86">
+    <row r="45" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>91</v>
       </c>
@@ -14738,7 +14710,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:86">
+    <row r="46" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>92</v>
       </c>
@@ -14998,7 +14970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:86">
+    <row r="47" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>93</v>
       </c>
@@ -15258,7 +15230,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:86">
+    <row r="48" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -15518,7 +15490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:86">
+    <row r="49" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>95</v>
       </c>
@@ -15778,7 +15750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:86">
+    <row r="50" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>96</v>
       </c>
@@ -16038,7 +16010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:86">
+    <row r="51" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>97</v>
       </c>
@@ -16298,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:86">
+    <row r="52" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -16558,7 +16530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:86">
+    <row r="53" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>99</v>
       </c>
@@ -16818,7 +16790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:86">
+    <row r="54" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>100</v>
       </c>
@@ -17078,7 +17050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:86">
+    <row r="55" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>101</v>
       </c>
@@ -17338,7 +17310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:86">
+    <row r="56" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>102</v>
       </c>
@@ -17598,7 +17570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:86">
+    <row r="57" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>103</v>
       </c>
@@ -17858,7 +17830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:86">
+    <row r="58" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>104</v>
       </c>
@@ -18118,7 +18090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:86">
+    <row r="59" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>105</v>
       </c>
@@ -18378,7 +18350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:86">
+    <row r="60" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>106</v>
       </c>
@@ -18638,7 +18610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:86">
+    <row r="61" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>107</v>
       </c>
@@ -18898,7 +18870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:86">
+    <row r="62" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>108</v>
       </c>
@@ -19158,7 +19130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:86">
+    <row r="63" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>109</v>
       </c>
@@ -19418,7 +19390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:86">
+    <row r="64" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>110</v>
       </c>
@@ -19678,7 +19650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:86">
+    <row r="65" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>111</v>
       </c>
@@ -19938,7 +19910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:86">
+    <row r="66" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>112</v>
       </c>
@@ -20198,7 +20170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:86">
+    <row r="67" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>113</v>
       </c>
@@ -20458,7 +20430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:86">
+    <row r="68" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>114</v>
       </c>
@@ -20718,7 +20690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:86">
+    <row r="69" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>115</v>
       </c>
@@ -20978,7 +20950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:86">
+    <row r="70" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>116</v>
       </c>
@@ -21238,7 +21210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:86">
+    <row r="71" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>117</v>
       </c>
@@ -21498,7 +21470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:86">
+    <row r="72" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>118</v>
       </c>
@@ -21758,7 +21730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:86">
+    <row r="73" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>119</v>
       </c>
@@ -22018,7 +21990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:86">
+    <row r="74" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>120</v>
       </c>
@@ -22278,7 +22250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:86">
+    <row r="75" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>121</v>
       </c>
@@ -22538,7 +22510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:86">
+    <row r="76" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>122</v>
       </c>
@@ -22798,7 +22770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:86">
+    <row r="77" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>123</v>
       </c>
@@ -23058,7 +23030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:86">
+    <row r="78" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>124</v>
       </c>
@@ -23318,7 +23290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:86">
+    <row r="79" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>222</v>
       </c>
@@ -23578,7 +23550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:86">
+    <row r="80" spans="1:86" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>224</v>
       </c>
@@ -23838,7 +23810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:85">
+    <row r="81" spans="1:85" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>226</v>
       </c>
@@ -24116,12 +24088,12 @@
       <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18">
+    <row r="1" spans="1:11" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="22" t="s">
         <v>228</v>
       </c>
@@ -24136,7 +24108,7 @@
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
     </row>
-    <row r="2" spans="1:11" ht="16.5">
+    <row r="2" spans="1:11" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>229</v>
       </c>
@@ -24151,7 +24123,7 @@
       <c r="J2" s="23"/>
       <c r="K2" s="23"/>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
         <v>51</v>
       </c>
@@ -24166,7 +24138,7 @@
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
         <v>230</v>
       </c>
@@ -24181,7 +24153,7 @@
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="s">
         <v>231</v>
       </c>
@@ -24204,7 +24176,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="4" t="s">
@@ -24235,7 +24207,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>239</v>
       </c>
@@ -24270,7 +24242,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -24305,7 +24277,7 @@
         <v>2368.1999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>243</v>
       </c>
@@ -24340,7 +24312,7 @@
         <v>671.7</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>245</v>
       </c>
@@ -24375,7 +24347,7 @@
         <v>629.9</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>247</v>
       </c>
@@ -24410,7 +24382,7 @@
         <v>41.7</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>249</v>
       </c>
@@ -24445,7 +24417,7 @@
         <v>1541.1</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>251</v>
       </c>
@@ -24480,7 +24452,7 @@
         <v>533.70000000000005</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>253</v>
       </c>
@@ -24515,7 +24487,7 @@
         <v>226.5</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>255</v>
       </c>
@@ -24550,7 +24522,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>257</v>
       </c>
@@ -24585,7 +24557,7 @@
         <v>129.9</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>258</v>
       </c>
@@ -24620,7 +24592,7 @@
         <v>155.4</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>260</v>
       </c>
@@ -24655,7 +24627,7 @@
         <v>22.9</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>262</v>
       </c>
@@ -24690,7 +24662,7 @@
         <v>100.5</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>264</v>
       </c>
@@ -24725,7 +24697,7 @@
         <v>79.7</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>266</v>
       </c>
@@ -24760,7 +24732,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>268</v>
       </c>
@@ -24795,7 +24767,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>270</v>
       </c>
@@ -24830,7 +24802,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>272</v>
       </c>
@@ -24865,7 +24837,7 @@
         <v>916.3</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -24900,7 +24872,7 @@
         <v>61.7</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>276</v>
       </c>
@@ -24935,7 +24907,7 @@
         <v>96.9</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>278</v>
       </c>
@@ -24970,7 +24942,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>59</v>
       </c>
@@ -25005,7 +24977,7 @@
         <v>-9.3000000000000007</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>60</v>
       </c>
@@ -25040,7 +25012,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>282</v>
       </c>
@@ -25075,7 +25047,7 @@
         <v>2180.3000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>284</v>
       </c>
@@ -25110,7 +25082,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="33" spans="1:11">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>286</v>
       </c>
@@ -25145,7 +25117,7 @@
         <v>948.5</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>288</v>
       </c>
@@ -25180,7 +25152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:11">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>290</v>
       </c>
@@ -25215,7 +25187,7 @@
         <v>284.2</v>
       </c>
     </row>
-    <row r="36" spans="1:11">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>292</v>
       </c>
@@ -25250,7 +25222,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="37" spans="1:11">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>294</v>
       </c>
@@ -25285,7 +25257,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>296</v>
       </c>
@@ -25320,7 +25292,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>297</v>
       </c>
@@ -25355,7 +25327,7 @@
         <v>143.6</v>
       </c>
     </row>
-    <row r="40" spans="1:11">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>299</v>
       </c>
@@ -25390,7 +25362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:11">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>301</v>
       </c>
@@ -25425,7 +25397,7 @@
         <v>137.6</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>52</v>
       </c>
@@ -25460,7 +25432,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>303</v>
       </c>
@@ -25495,7 +25467,7 @@
         <v>3641</v>
       </c>
     </row>
-    <row r="44" spans="1:11">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>305</v>
       </c>
@@ -25530,7 +25502,7 @@
         <v>3557.4</v>
       </c>
     </row>
-    <row r="45" spans="1:11">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>306</v>
       </c>
@@ -25565,7 +25537,7 @@
         <v>83.7</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>308</v>
       </c>
@@ -25600,7 +25572,7 @@
         <v>3532.3</v>
       </c>
     </row>
-    <row r="47" spans="1:11">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>310</v>
       </c>
@@ -25635,7 +25607,7 @@
         <v>3413.7</v>
       </c>
     </row>
-    <row r="48" spans="1:11">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>311</v>
       </c>
@@ -25670,7 +25642,7 @@
         <v>450.3</v>
       </c>
     </row>
-    <row r="49" spans="1:11">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>313</v>
       </c>
@@ -25705,7 +25677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>80</v>
       </c>
@@ -25740,7 +25712,7 @@
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:11">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>316</v>
       </c>
@@ -25775,7 +25747,7 @@
         <v>350.8</v>
       </c>
     </row>
-    <row r="52" spans="1:11">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>318</v>
       </c>
@@ -25810,7 +25782,7 @@
         <v>108.8</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="15.75">
+    <row r="53" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A53" s="26" t="s">
         <v>320</v>
       </c>
@@ -25825,7 +25797,7 @@
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="27" t="s">
         <v>321</v>
       </c>
@@ -25865,13 +25837,13 @@
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>323</v>
       </c>
@@ -25880,7 +25852,7 @@
         <v>1795500000000</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>324</v>
       </c>
@@ -25889,7 +25861,7 @@
         <v>34904443000000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>325</v>
       </c>
@@ -25914,13 +25886,13 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="30">
+    <row r="1" spans="1:43" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -26051,7 +26023,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:43">
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>44</v>
       </c>
